--- a/dev/Input data.xlsx
+++ b/dev/Input data.xlsx
@@ -249,9 +249,6 @@
     <t>combustion powertrain cost per kW</t>
   </si>
   <si>
-    <t>energy storage battery cost per kWh</t>
-  </si>
-  <si>
     <t>fuel tank cost per kg</t>
   </si>
   <si>
@@ -919,6 +916,9 @@
   </si>
   <si>
     <t>Uncertainty factor for hot pollutant emissions</t>
+  </si>
+  <si>
+    <t>energy battery cost per kWh</t>
   </si>
 </sst>
 </file>
@@ -5486,7 +5486,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C149" sqref="C149"/>
+      <selection pane="bottomRight" activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5511,37 +5511,37 @@
   <sheetData>
     <row r="1" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>244</v>
-      </c>
       <c r="K1" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L1" s="34">
         <v>2000</v>
@@ -5662,29 +5662,29 @@
         <v>23</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L3" s="13">
         <v>220000</v>
@@ -5749,29 +5749,29 @@
         <v>23</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L4" s="13">
         <v>650000</v>
@@ -5836,29 +5836,29 @@
         <v>23</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L5" s="13">
         <v>400000</v>
@@ -5923,29 +5923,29 @@
         <v>23</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L6" s="13">
         <v>560000</v>
@@ -6010,29 +6010,29 @@
         <v>23</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L7" s="13">
         <v>1050000</v>
@@ -6097,31 +6097,31 @@
         <v>23</v>
       </c>
       <c r="C8" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>230</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>231</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K8" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L8" s="13">
         <v>1050000</v>
@@ -6186,29 +6186,29 @@
         <v>23</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L9" s="15">
         <v>18333.333333333332</v>
@@ -6285,29 +6285,29 @@
         <v>23</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L10" s="26">
         <v>54166.666666666664</v>
@@ -6384,29 +6384,29 @@
         <v>23</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L11" s="15">
         <v>33333.333333333336</v>
@@ -6483,29 +6483,29 @@
         <v>23</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L12" s="15">
         <v>46666.666666666664</v>
@@ -6582,29 +6582,29 @@
         <v>23</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L13" s="15">
         <v>83333.333333333328</v>
@@ -6681,31 +6681,31 @@
         <v>23</v>
       </c>
       <c r="C14" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>231</v>
-      </c>
       <c r="E14" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L14" s="15">
         <v>83333.333333333328</v>
@@ -6782,31 +6782,31 @@
         <v>23</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E15" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="F15" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="I15" s="13" t="s">
+      <c r="J15" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>258</v>
-      </c>
       <c r="K15" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L15" s="15">
         <v>60</v>
@@ -6847,31 +6847,31 @@
         <v>23</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E16" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="F16" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="I16" s="13" t="s">
+      <c r="J16" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="J16" s="13" t="s">
-        <v>258</v>
-      </c>
       <c r="K16" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L16" s="15">
         <v>100</v>
@@ -6912,31 +6912,31 @@
         <v>23</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E17" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="I17" s="13" t="s">
+      <c r="J17" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="J17" s="13" t="s">
-        <v>258</v>
-      </c>
       <c r="K17" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L17" s="15">
         <v>100</v>
@@ -6977,31 +6977,31 @@
         <v>23</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="F18" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="I18" s="13" t="s">
+      <c r="J18" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="J18" s="13" t="s">
-        <v>258</v>
-      </c>
       <c r="K18" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L18" s="15">
         <v>150</v>
@@ -7042,31 +7042,31 @@
         <v>23</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E19" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="F19" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="I19" s="13" t="s">
+      <c r="J19" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="J19" s="13" t="s">
-        <v>258</v>
-      </c>
       <c r="K19" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L19" s="15">
         <v>300</v>
@@ -7107,31 +7107,31 @@
         <v>23</v>
       </c>
       <c r="C20" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>231</v>
-      </c>
       <c r="E20" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="I20" s="13" t="s">
+      <c r="J20" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="J20" s="13" t="s">
-        <v>258</v>
-      </c>
       <c r="K20" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L20" s="15">
         <v>350</v>
@@ -7169,34 +7169,34 @@
         <v>37</v>
       </c>
       <c r="B21" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="J21" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C21" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>265</v>
-      </c>
       <c r="K21" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L21" s="15">
         <v>40</v>
@@ -7237,27 +7237,27 @@
         <v>23</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L22" s="15">
         <v>3500</v>
@@ -7298,27 +7298,27 @@
         <v>23</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L23" s="15">
         <v>7500</v>
@@ -7359,27 +7359,27 @@
         <v>23</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L24" s="15">
         <v>18000</v>
@@ -7420,27 +7420,27 @@
         <v>23</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L25" s="15">
         <v>26000</v>
@@ -7481,27 +7481,27 @@
         <v>23</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L26" s="15">
         <v>40000</v>
@@ -7542,27 +7542,27 @@
         <v>23</v>
       </c>
       <c r="C27" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>231</v>
-      </c>
       <c r="E27" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L27" s="15">
         <v>60000</v>
@@ -7603,31 +7603,31 @@
         <v>23</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L28" s="26">
         <v>1430</v>
@@ -7704,31 +7704,31 @@
         <v>23</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L29" s="26">
         <v>3060</v>
@@ -7805,31 +7805,31 @@
         <v>23</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L30" s="26">
         <v>7350</v>
@@ -7906,31 +7906,31 @@
         <v>23</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L31" s="26">
         <v>10600</v>
@@ -8007,31 +8007,31 @@
         <v>23</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L32" s="26">
         <v>11800</v>
@@ -8108,31 +8108,31 @@
         <v>23</v>
       </c>
       <c r="C33" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="33" t="s">
         <v>230</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>231</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K33" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L33" s="26">
         <v>17700</v>
@@ -8209,31 +8209,31 @@
         <v>23</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L34" s="23">
         <v>0</v>
@@ -8310,31 +8310,31 @@
         <v>23</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K35" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L35" s="23">
         <v>0</v>
@@ -8411,31 +8411,31 @@
         <v>23</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L36" s="16">
         <v>66</v>
@@ -8500,31 +8500,31 @@
         <v>23</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L37" s="16">
         <v>38</v>
@@ -8589,31 +8589,31 @@
         <v>23</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L38" s="16">
         <v>35</v>
@@ -8678,31 +8678,31 @@
         <v>23</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L39" s="16">
         <v>29</v>
@@ -8767,31 +8767,31 @@
         <v>23</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L40" s="16">
         <v>28</v>
@@ -8856,31 +8856,31 @@
         <v>23</v>
       </c>
       <c r="C41" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D41" s="33" t="s">
         <v>230</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>231</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K41" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L41" s="16">
         <v>22</v>
@@ -8945,31 +8945,31 @@
         <v>23</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L42" s="16">
         <v>4.0999999999999996</v>
@@ -9034,31 +9034,31 @@
         <v>23</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L43" s="16">
         <v>5.3</v>
@@ -9123,31 +9123,31 @@
         <v>23</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L44" s="16">
         <v>7.5</v>
@@ -9212,31 +9212,31 @@
         <v>23</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L45" s="16">
         <v>7.9</v>
@@ -9301,31 +9301,31 @@
         <v>23</v>
       </c>
       <c r="C46" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="I46" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D46" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="G46" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>167</v>
-      </c>
       <c r="J46" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L46" s="13">
         <v>8</v>
@@ -9390,31 +9390,31 @@
         <v>23</v>
       </c>
       <c r="C47" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D47" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="D47" s="33" t="s">
-        <v>231</v>
-      </c>
       <c r="E47" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K47" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L47" s="13">
         <v>7.9</v>
@@ -9488,20 +9488,20 @@
         <v>1</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L48" s="21">
         <v>0.6</v>
@@ -9575,20 +9575,20 @@
         <v>5</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G49" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I49" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J49" s="13"/>
       <c r="K49" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L49" s="24">
         <v>5.4999999999999997E-3</v>
@@ -9662,20 +9662,20 @@
         <v>3</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J50" s="13"/>
       <c r="K50" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L50" s="16">
         <v>1</v>
@@ -9749,20 +9749,20 @@
         <v>4</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J51" s="13"/>
       <c r="K51" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L51" s="16">
         <v>75</v>
@@ -9827,31 +9827,31 @@
         <v>23</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E52" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G52" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="F52" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="G52" s="26" t="s">
-        <v>181</v>
-      </c>
       <c r="H52" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L52" s="16">
         <v>1575</v>
@@ -9916,31 +9916,31 @@
         <v>23</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E53" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G53" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="F53" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="G53" s="26" t="s">
-        <v>181</v>
-      </c>
       <c r="H53" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L53" s="16">
         <v>3600</v>
@@ -10005,31 +10005,31 @@
         <v>23</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E54" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G54" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="F54" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="G54" s="26" t="s">
-        <v>181</v>
-      </c>
       <c r="H54" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L54" s="16">
         <v>9400</v>
@@ -10094,31 +10094,31 @@
         <v>23</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E55" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G55" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="F55" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="G55" s="26" t="s">
-        <v>181</v>
-      </c>
       <c r="H55" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L55" s="16">
         <v>15400</v>
@@ -10183,31 +10183,31 @@
         <v>23</v>
       </c>
       <c r="C56" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="I56" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D56" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="G56" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>167</v>
-      </c>
       <c r="J56" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L56" s="16">
         <v>25300</v>
@@ -10272,31 +10272,31 @@
         <v>23</v>
       </c>
       <c r="C57" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D57" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="D57" s="33" t="s">
-        <v>231</v>
-      </c>
       <c r="E57" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G57" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="F57" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="G57" s="26" t="s">
-        <v>181</v>
-      </c>
       <c r="H57" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K57" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L57" s="16">
         <v>38000</v>
@@ -10361,31 +10361,31 @@
         <v>23</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L58" s="16">
         <v>0.83</v>
@@ -10450,31 +10450,31 @@
         <v>23</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G59" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L59" s="16">
         <v>0.83</v>
@@ -10539,31 +10539,31 @@
         <v>23</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L60" s="16">
         <v>0.64</v>
@@ -10628,31 +10628,31 @@
         <v>23</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G61" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L61" s="16">
         <v>0.73</v>
@@ -10717,31 +10717,31 @@
         <v>23</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G62" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L62" s="16">
         <v>0.73</v>
@@ -10806,31 +10806,31 @@
         <v>23</v>
       </c>
       <c r="C63" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D63" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="D63" s="33" t="s">
-        <v>231</v>
-      </c>
       <c r="E63" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K63" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L63" s="16">
         <v>0.73</v>
@@ -10895,31 +10895,31 @@
         <v>23</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I64" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="J64" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="J64" s="13" t="s">
-        <v>267</v>
-      </c>
       <c r="K64" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L64" s="21">
         <f t="shared" ref="L64:N69" si="24">O64*0.95</f>
@@ -10999,31 +10999,31 @@
         <v>23</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G65" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I65" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="J65" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="J65" s="13" t="s">
-        <v>267</v>
-      </c>
       <c r="K65" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L65" s="21">
         <f t="shared" si="24"/>
@@ -11103,31 +11103,31 @@
         <v>23</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I66" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="J66" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="J66" s="13" t="s">
-        <v>267</v>
-      </c>
       <c r="K66" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L66" s="21">
         <f t="shared" si="24"/>
@@ -11207,31 +11207,31 @@
         <v>23</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I67" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="J67" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="J67" s="13" t="s">
-        <v>267</v>
-      </c>
       <c r="K67" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L67" s="21">
         <f t="shared" si="24"/>
@@ -11311,31 +11311,31 @@
         <v>23</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I68" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="J68" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="J68" s="13" t="s">
-        <v>267</v>
-      </c>
       <c r="K68" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L68" s="21">
         <f t="shared" si="24"/>
@@ -11415,31 +11415,31 @@
         <v>23</v>
       </c>
       <c r="C69" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D69" s="33" t="s">
         <v>230</v>
-      </c>
-      <c r="D69" s="33" t="s">
-        <v>231</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I69" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="J69" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="J69" s="13" t="s">
-        <v>267</v>
-      </c>
       <c r="K69" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L69" s="21">
         <f t="shared" si="24"/>
@@ -11528,22 +11528,22 @@
         <v>54</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G70" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I70" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J70" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J70" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K70" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L70" s="16">
         <v>0.85</v>
@@ -11606,39 +11606,39 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" s="33" t="s">
         <v>30</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>54</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G71" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I71" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="J71" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="J71" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="K71" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L71" s="21">
         <f t="shared" ref="L71:M76" si="35">P71*1.03</f>
@@ -11710,39 +11710,39 @@
         <v>0.37841660999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" s="33" t="s">
         <v>30</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>54</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G72" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I72" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="J72" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="J72" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="K72" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L72" s="21">
         <f t="shared" si="35"/>
@@ -11814,39 +11814,39 @@
         <v>3.881196E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" s="33" t="s">
         <v>30</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>54</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G73" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I73" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="J73" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="J73" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="K73" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L73" s="21">
         <f t="shared" si="35"/>
@@ -11918,39 +11918,39 @@
         <v>0.40752558</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" s="33" t="s">
         <v>30</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>54</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I74" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="J74" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="J74" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="K74" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L74" s="21">
         <f t="shared" si="35"/>
@@ -12027,34 +12027,34 @@
         <v>30</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>54</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G75" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I75" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="J75" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="J75" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="K75" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L75" s="21">
         <f t="shared" si="35"/>
@@ -12131,34 +12131,34 @@
         <v>30</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C76" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76" s="33" t="s">
         <v>230</v>
-      </c>
-      <c r="D76" s="33" t="s">
-        <v>231</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>54</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G76" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I76" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="J76" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="J76" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="K76" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L76" s="21">
         <f t="shared" si="35"/>
@@ -12247,22 +12247,22 @@
         <v>33</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G77" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L77" s="16">
         <v>0.4</v>
@@ -12342,22 +12342,22 @@
         <v>40</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J78" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L78" s="16">
         <v>700</v>
@@ -12431,14 +12431,14 @@
         <v>41</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
       <c r="J79" s="13"/>
       <c r="K79" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L79" s="20">
         <f>O79*1.05</f>
@@ -12521,14 +12521,14 @@
         <v>42</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
       <c r="J80" s="13"/>
       <c r="K80" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L80" s="20">
         <f>O80*1.05</f>
@@ -12611,14 +12611,14 @@
         <v>34</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
       <c r="J81" s="13"/>
       <c r="K81" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L81" s="16">
         <v>1.2</v>
@@ -12680,7 +12680,7 @@
         <v>30</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>23</v>
@@ -12692,22 +12692,22 @@
         <v>9</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I82" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="J82" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="J82" s="12" t="s">
-        <v>194</v>
-      </c>
       <c r="K82" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L82" s="16">
         <v>35</v>
@@ -12775,7 +12775,7 @@
         <v>30</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C83" s="22" t="s">
         <v>23</v>
@@ -12784,25 +12784,25 @@
         <v>23</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I83" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="J83" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="J83" s="13" t="s">
-        <v>191</v>
-      </c>
       <c r="K83" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L83" s="16">
         <v>4.0999999999999996</v>
@@ -12868,7 +12868,7 @@
         <v>30</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>23</v>
@@ -12877,25 +12877,25 @@
         <v>23</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I84" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="J84" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="J84" s="13" t="s">
-        <v>191</v>
-      </c>
       <c r="K84" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L84" s="16">
         <v>5.2999999999999999E-2</v>
@@ -12963,7 +12963,7 @@
         <v>30</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>23</v>
@@ -12975,22 +12975,22 @@
         <v>7</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L85" s="15">
         <f>O85*1.05</f>
@@ -13064,7 +13064,7 @@
         <v>30</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>23</v>
@@ -13076,18 +13076,18 @@
         <v>10</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
       <c r="I86" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="J86" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="J86" s="13" t="s">
-        <v>223</v>
-      </c>
       <c r="K86" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L86" s="15">
         <f>O86*1.05</f>
@@ -13161,7 +13161,7 @@
         <v>30</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>23</v>
@@ -13173,22 +13173,22 @@
         <v>8</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H87" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J87" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K87" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L87" s="16">
         <v>0.4</v>
@@ -13250,7 +13250,7 @@
         <v>30</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>23</v>
@@ -13262,22 +13262,22 @@
         <v>8</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K88" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L88" s="16">
         <v>0</v>
@@ -13327,7 +13327,7 @@
         <v>30</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>23</v>
@@ -13339,22 +13339,22 @@
         <v>57</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J89" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K89" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L89" s="20">
         <f>O89*1.05</f>
@@ -13422,7 +13422,7 @@
         <v>30</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>23</v>
@@ -13434,22 +13434,22 @@
         <v>57</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H90" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J90" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K90" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L90" s="20">
         <v>0</v>
@@ -13494,12 +13494,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="33" t="s">
         <v>30</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>23</v>
@@ -13511,22 +13511,22 @@
         <v>45</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H91" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K91" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L91" s="20">
         <f t="shared" ref="L91:Q92" si="50">O91*1.05</f>
@@ -13615,22 +13615,22 @@
         <v>45</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I92" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K92" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L92" s="20">
         <f t="shared" si="50"/>
@@ -13702,12 +13702,12 @@
         <v>3.0008124999999994</v>
       </c>
     </row>
-    <row r="93" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="33" t="s">
         <v>30</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>23</v>
@@ -13719,22 +13719,22 @@
         <v>56</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I93" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="J93" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="K93" s="14" t="s">
         <v>220</v>
-      </c>
-      <c r="J93" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="K93" s="14" t="s">
-        <v>221</v>
       </c>
       <c r="L93" s="16">
         <v>50</v>
@@ -13784,22 +13784,22 @@
         <v>56</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I94" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="J94" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="K94" s="14" t="s">
         <v>220</v>
-      </c>
-      <c r="J94" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="K94" s="14" t="s">
-        <v>221</v>
       </c>
       <c r="L94" s="16">
         <v>157</v>
@@ -13846,25 +13846,25 @@
         <v>23</v>
       </c>
       <c r="E95" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F95" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="F95" s="16" t="s">
-        <v>251</v>
-      </c>
       <c r="G95" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J95" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L95" s="16">
         <v>22</v>
@@ -13935,25 +13935,25 @@
         <v>23</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J96" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K96" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L96" s="16">
         <v>240</v>
@@ -14015,7 +14015,7 @@
         <v>30</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>23</v>
@@ -14027,22 +14027,22 @@
         <v>46</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I97" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J97" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J97" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K97" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L97" s="16">
         <v>0.75</v>
@@ -14104,7 +14104,7 @@
         <v>30</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>23</v>
@@ -14116,22 +14116,22 @@
         <v>46</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I98" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J98" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J98" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K98" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L98" s="16">
         <v>1</v>
@@ -14169,7 +14169,7 @@
         <v>30</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>23</v>
@@ -14181,22 +14181,22 @@
         <v>46</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I99" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J99" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J99" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K99" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L99" s="16">
         <v>0.4</v>
@@ -14258,7 +14258,7 @@
         <v>30</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C100" s="14" t="s">
         <v>23</v>
@@ -14270,22 +14270,22 @@
         <v>46</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I100" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J100" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J100" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K100" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L100" s="16">
         <v>0</v>
@@ -14335,22 +14335,22 @@
         <v>47</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I101" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J101" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J101" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K101" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L101" s="16">
         <v>0.75</v>
@@ -14415,29 +14415,29 @@
         <v>23</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D102" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J102" s="13"/>
       <c r="K102" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L102" s="15">
         <f t="shared" ref="L102:P107" si="52">O102*1.05</f>
@@ -14517,29 +14517,29 @@
         <v>23</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J103" s="13"/>
       <c r="K103" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L103" s="15">
         <f t="shared" si="52"/>
@@ -14619,29 +14619,29 @@
         <v>23</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J104" s="13"/>
       <c r="K104" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L104" s="15">
         <f t="shared" si="52"/>
@@ -14721,29 +14721,29 @@
         <v>23</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E105" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J105" s="13"/>
       <c r="K105" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L105" s="15">
         <f t="shared" si="52"/>
@@ -14823,29 +14823,29 @@
         <v>23</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D106" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E106" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J106" s="13"/>
       <c r="K106" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L106" s="15">
         <f t="shared" si="52"/>
@@ -14925,29 +14925,29 @@
         <v>23</v>
       </c>
       <c r="C107" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D107" s="33" t="s">
         <v>230</v>
-      </c>
-      <c r="D107" s="33" t="s">
-        <v>231</v>
       </c>
       <c r="E107" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J107" s="13"/>
       <c r="K107" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L107" s="15">
         <f t="shared" si="52"/>
@@ -15027,29 +15027,29 @@
         <v>23</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E108" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I108" s="13"/>
       <c r="J108" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K108" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L108" s="15">
         <f>L112*0.0875</f>
@@ -15132,29 +15132,29 @@
         <v>23</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D109" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I109" s="13"/>
       <c r="J109" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K109" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L109" s="15">
         <f>L112*0.1875</f>
@@ -15237,29 +15237,29 @@
         <v>23</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D110" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E110" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I110" s="13"/>
       <c r="J110" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K110" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L110" s="15">
         <f>L112*0.45</f>
@@ -15342,29 +15342,29 @@
         <v>23</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D111" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I111" s="13"/>
       <c r="J111" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K111" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L111" s="15">
         <f>L112*0.65</f>
@@ -15447,29 +15447,29 @@
         <v>23</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D112" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E112" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I112" s="13"/>
       <c r="J112" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K112" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L112" s="16">
         <v>500</v>
@@ -15548,29 +15548,29 @@
         <v>23</v>
       </c>
       <c r="C113" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D113" s="33" t="s">
         <v>230</v>
-      </c>
-      <c r="D113" s="33" t="s">
-        <v>231</v>
       </c>
       <c r="E113" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I113" s="13"/>
       <c r="J113" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K113" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L113" s="16">
         <v>500</v>
@@ -15649,29 +15649,29 @@
         <v>23</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D114" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E114" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I114" s="13"/>
       <c r="J114" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K114" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L114" s="15">
         <f>L118*0.0875</f>
@@ -15754,29 +15754,29 @@
         <v>23</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D115" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E115" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I115" s="13"/>
       <c r="J115" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K115" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L115" s="15">
         <f>L118*0.1875</f>
@@ -15859,29 +15859,29 @@
         <v>23</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D116" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E116" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I116" s="13"/>
       <c r="J116" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K116" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L116" s="15">
         <f>L118*0.45</f>
@@ -15964,29 +15964,29 @@
         <v>23</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D117" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E117" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I117" s="13"/>
       <c r="J117" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K117" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L117" s="15">
         <f>L118*0.65</f>
@@ -16069,29 +16069,29 @@
         <v>23</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D118" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E118" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I118" s="13"/>
       <c r="J118" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K118" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L118" s="16">
         <v>500</v>
@@ -16170,29 +16170,29 @@
         <v>23</v>
       </c>
       <c r="C119" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D119" s="33" t="s">
         <v>230</v>
-      </c>
-      <c r="D119" s="33" t="s">
-        <v>231</v>
       </c>
       <c r="E119" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I119" s="13"/>
       <c r="J119" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K119" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L119" s="16">
         <v>500</v>
@@ -16263,12 +16263,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="120" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A120" s="33" t="s">
         <v>31</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C120" s="14" t="s">
         <v>23</v>
@@ -16280,22 +16280,22 @@
         <v>27</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I120" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J120" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J120" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K120" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L120" s="16">
         <v>0</v>
@@ -16345,22 +16345,22 @@
         <v>27</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I121" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J121" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J121" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K121" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L121" s="16">
         <v>1</v>
@@ -16418,22 +16418,22 @@
         <v>28</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G122" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I122" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J122" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J122" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K122" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L122" s="20">
         <v>1</v>
@@ -16495,7 +16495,7 @@
         <v>32</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C123" s="14" t="s">
         <v>23</v>
@@ -16507,22 +16507,22 @@
         <v>17</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I123" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J123" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J123" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K123" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L123" s="16">
         <v>0.85</v>
@@ -16590,7 +16590,7 @@
         <v>32</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C124" s="14" t="s">
         <v>23</v>
@@ -16602,22 +16602,22 @@
         <v>17</v>
       </c>
       <c r="F124" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G124" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I124" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J124" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J124" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K124" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L124" s="16">
         <v>0</v>
@@ -16675,22 +16675,22 @@
         <v>16</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I125" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J125" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J125" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K125" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L125" s="16">
         <v>0.88</v>
@@ -16770,22 +16770,22 @@
         <v>6</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I126" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J126" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J126" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K126" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L126" s="16">
         <v>0.8</v>
@@ -16859,20 +16859,20 @@
         <v>19</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I127" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J127" s="13"/>
       <c r="K127" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L127" s="16">
         <v>0.05</v>
@@ -16929,12 +16929,12 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A128" s="33" t="s">
         <v>32</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C128" s="14" t="s">
         <v>23</v>
@@ -16946,22 +16946,22 @@
         <v>49</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I128" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J128" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J128" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K128" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L128" s="16">
         <v>2</v>
@@ -17041,22 +17041,22 @@
         <v>20</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I129" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J129" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J129" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K129" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L129" s="16">
         <v>0.6</v>
@@ -17118,7 +17118,7 @@
         <v>32</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C130" s="14" t="s">
         <v>23</v>
@@ -17130,22 +17130,22 @@
         <v>20</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I130" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J130" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J130" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K130" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L130" s="16">
         <v>0.5</v>
@@ -17207,7 +17207,7 @@
         <v>32</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C131" s="14" t="s">
         <v>23</v>
@@ -17219,22 +17219,22 @@
         <v>20</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I131" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J131" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J131" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K131" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L131" s="16">
         <v>0.5</v>
@@ -17296,7 +17296,7 @@
         <v>32</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C132" s="14" t="s">
         <v>23</v>
@@ -17305,25 +17305,25 @@
         <v>23</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I132" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J132" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J132" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K132" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L132" s="16">
         <v>32</v>
@@ -17385,7 +17385,7 @@
         <v>32</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C133" s="14" t="s">
         <v>23</v>
@@ -17394,25 +17394,25 @@
         <v>23</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I133" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J133" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J133" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K133" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L133" s="16">
         <v>32</v>
@@ -17474,7 +17474,7 @@
         <v>32</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C134" s="14" t="s">
         <v>23</v>
@@ -17483,25 +17483,25 @@
         <v>23</v>
       </c>
       <c r="E134" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F134" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H134" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I134" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J134" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J134" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K134" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L134" s="16">
         <v>0.5</v>
@@ -17563,7 +17563,7 @@
         <v>32</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C135" s="14" t="s">
         <v>23</v>
@@ -17572,25 +17572,25 @@
         <v>23</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H135" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I135" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J135" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J135" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K135" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L135" s="16">
         <v>0.5</v>
@@ -17652,7 +17652,7 @@
         <v>32</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C136" s="14" t="s">
         <v>23</v>
@@ -17664,22 +17664,22 @@
         <v>11</v>
       </c>
       <c r="F136" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H136" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I136" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="J136" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="J136" s="13" t="s">
-        <v>186</v>
-      </c>
       <c r="K136" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L136" s="16">
         <v>400000</v>
@@ -17741,7 +17741,7 @@
         <v>32</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C137" s="14" t="s">
         <v>23</v>
@@ -17753,16 +17753,16 @@
         <v>11</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H137" s="13"/>
       <c r="I137" s="13"/>
       <c r="J137" s="13"/>
       <c r="K137" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L137" s="16"/>
       <c r="M137" s="16"/>
@@ -17812,22 +17812,22 @@
         <v>58</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H138" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I138" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="J138" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="J138" s="13" t="s">
-        <v>188</v>
-      </c>
       <c r="K138" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L138" s="16">
         <v>150000</v>
@@ -17901,22 +17901,22 @@
         <v>50</v>
       </c>
       <c r="F139" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G139" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H139" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I139" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J139" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J139" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K139" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L139" s="16">
         <v>0.6</v>
@@ -17978,7 +17978,7 @@
         <v>32</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C140" s="14" t="s">
         <v>23</v>
@@ -17990,18 +17990,18 @@
         <v>50</v>
       </c>
       <c r="F140" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G140" s="16"/>
       <c r="H140" s="16"/>
       <c r="I140" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J140" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J140" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K140" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L140" s="16">
         <v>7.4999999999999997E-2</v>
@@ -18075,18 +18075,18 @@
         <v>51</v>
       </c>
       <c r="F141" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G141" s="16"/>
       <c r="H141" s="16"/>
       <c r="I141" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J141" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J141" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K141" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L141" s="16">
         <v>0.2</v>
@@ -18160,22 +18160,22 @@
         <v>52</v>
       </c>
       <c r="F142" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G142" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H142" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I142" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J142" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J142" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="K142" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L142" s="16">
         <v>25</v>
@@ -18237,30 +18237,30 @@
         <v>32</v>
       </c>
       <c r="B143" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C143" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D143" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E143" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="C143" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D143" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E143" s="25" t="s">
+      <c r="F143" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="F143" s="25" t="s">
-        <v>262</v>
-      </c>
       <c r="G143" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H143" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I143" s="13"/>
       <c r="J143" s="13"/>
       <c r="K143" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L143" s="16">
         <v>42.8</v>
@@ -18307,21 +18307,21 @@
         <v>23</v>
       </c>
       <c r="E144" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="F144" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="F144" s="25" t="s">
-        <v>262</v>
-      </c>
       <c r="G144" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H144" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I144" s="13"/>
       <c r="J144" s="13"/>
       <c r="K144" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L144" s="16">
         <v>55.5</v>
@@ -18368,21 +18368,21 @@
         <v>23</v>
       </c>
       <c r="E145" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="F145" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="F145" s="25" t="s">
-        <v>262</v>
-      </c>
       <c r="G145" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H145" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I145" s="13"/>
       <c r="J145" s="13"/>
       <c r="K145" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L145" s="16">
         <v>120</v>
@@ -18432,18 +18432,18 @@
         <v>53</v>
       </c>
       <c r="F146" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H146" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I146" s="13"/>
       <c r="J146" s="13"/>
       <c r="K146" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L146" s="21">
         <f>2.65</f>
@@ -18523,18 +18523,18 @@
         <v>53</v>
       </c>
       <c r="F147" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H147" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I147" s="13"/>
       <c r="J147" s="13"/>
       <c r="K147" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L147" s="21">
         <v>3.1375899999999999</v>
@@ -18596,7 +18596,7 @@
         <v>39</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C148" s="14" t="s">
         <v>23</v>
@@ -18608,18 +18608,18 @@
         <v>53</v>
       </c>
       <c r="F148" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H148" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I148" s="13"/>
       <c r="J148" s="13"/>
       <c r="K148" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L148" s="21">
         <v>3.1833399999999998</v>
@@ -18690,23 +18690,23 @@
         <v>23</v>
       </c>
       <c r="E149" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F149" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G149" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H149" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I149" s="13"/>
       <c r="J149" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K149" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L149" s="21">
         <v>1</v>
@@ -18777,17 +18777,17 @@
         <v>23</v>
       </c>
       <c r="E150" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G150" s="13"/>
       <c r="H150" s="13"/>
       <c r="I150" s="13"/>
       <c r="J150" s="13"/>
       <c r="K150" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L150" s="21">
         <v>0.05</v>
@@ -18846,23 +18846,23 @@
         <v>23</v>
       </c>
       <c r="C151" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D151" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E151" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F151" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G151" s="13"/>
       <c r="H151" s="13"/>
       <c r="I151" s="13"/>
       <c r="J151" s="13"/>
       <c r="K151" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L151" s="21">
         <v>1.2</v>
@@ -18921,23 +18921,23 @@
         <v>23</v>
       </c>
       <c r="C152" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D152" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E152" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F152" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G152" s="13"/>
       <c r="H152" s="13"/>
       <c r="I152" s="13"/>
       <c r="J152" s="13"/>
       <c r="K152" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L152" s="21">
         <v>1.2</v>
@@ -18996,23 +18996,23 @@
         <v>23</v>
       </c>
       <c r="C153" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D153" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E153" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F153" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G153" s="13"/>
       <c r="H153" s="13"/>
       <c r="I153" s="13"/>
       <c r="J153" s="13"/>
       <c r="K153" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L153" s="21">
         <v>1.2</v>
@@ -19071,23 +19071,23 @@
         <v>23</v>
       </c>
       <c r="C154" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D154" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E154" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F154" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G154" s="13"/>
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
       <c r="J154" s="13"/>
       <c r="K154" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L154" s="21">
         <v>1.2</v>
@@ -19146,23 +19146,23 @@
         <v>23</v>
       </c>
       <c r="C155" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D155" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E155" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F155" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G155" s="13"/>
       <c r="H155" s="13"/>
       <c r="I155" s="13"/>
       <c r="J155" s="13"/>
       <c r="K155" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L155" s="21">
         <v>1.2</v>
@@ -19221,23 +19221,23 @@
         <v>23</v>
       </c>
       <c r="C156" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D156" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="D156" s="33" t="s">
-        <v>231</v>
-      </c>
       <c r="E156" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F156" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G156" s="13"/>
       <c r="H156" s="13"/>
       <c r="I156" s="13"/>
       <c r="J156" s="13"/>
       <c r="K156" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L156" s="21">
         <v>1.2</v>
@@ -19305,14 +19305,14 @@
         <v>60</v>
       </c>
       <c r="F157" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G157" s="13"/>
       <c r="H157" s="13"/>
       <c r="I157" s="13"/>
       <c r="J157" s="13"/>
       <c r="K157" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L157" s="28">
         <v>16</v>
@@ -19380,14 +19380,14 @@
         <v>61</v>
       </c>
       <c r="F158" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G158" s="13"/>
       <c r="H158" s="13"/>
       <c r="I158" s="13"/>
       <c r="J158" s="13"/>
       <c r="K158" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L158" s="29">
         <v>-900</v>
@@ -19443,26 +19443,26 @@
         <v>65</v>
       </c>
       <c r="B159" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C159" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D159" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E159" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C159" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D159" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E159" s="25" t="s">
-        <v>77</v>
-      </c>
       <c r="F159" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G159" s="13"/>
       <c r="H159" s="13"/>
       <c r="I159" s="13"/>
       <c r="J159" s="13"/>
       <c r="K159" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L159" s="30">
         <v>2.5000000000000001E-2</v>
@@ -19513,12 +19513,12 @@
       <c r="AB159" s="13"/>
       <c r="AC159" s="13"/>
     </row>
-    <row r="160" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A160" s="33" t="s">
         <v>65</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C160" s="25" t="s">
         <v>23</v>
@@ -19527,17 +19527,17 @@
         <v>23</v>
       </c>
       <c r="E160" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F160" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G160" s="13"/>
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
       <c r="J160" s="13"/>
       <c r="K160" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L160" s="30">
         <v>0.03</v>
@@ -19605,14 +19605,14 @@
         <v>66</v>
       </c>
       <c r="F161" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G161" s="13"/>
       <c r="H161" s="13"/>
       <c r="I161" s="13"/>
       <c r="J161" s="13"/>
       <c r="K161" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L161" s="28">
         <v>4.5</v>
@@ -19680,14 +19680,14 @@
         <v>67</v>
       </c>
       <c r="F162" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G162" s="13"/>
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
       <c r="J162" s="13"/>
       <c r="K162" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L162" s="29">
         <v>160</v>
@@ -19755,14 +19755,14 @@
         <v>68</v>
       </c>
       <c r="F163" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G163" s="13"/>
       <c r="H163" s="13"/>
       <c r="I163" s="13"/>
       <c r="J163" s="13"/>
       <c r="K163" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L163" s="29">
         <v>50</v>
@@ -19830,14 +19830,14 @@
         <v>69</v>
       </c>
       <c r="F164" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G164" s="13"/>
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
       <c r="J164" s="13"/>
       <c r="K164" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L164" s="29">
         <v>22</v>
@@ -19893,7 +19893,7 @@
         <v>65</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C165" s="25" t="s">
         <v>23</v>
@@ -19905,14 +19905,14 @@
         <v>69</v>
       </c>
       <c r="F165" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G165" s="13"/>
       <c r="H165" s="13"/>
       <c r="I165" s="13"/>
       <c r="J165" s="13"/>
       <c r="K165" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L165" s="29">
         <v>33</v>
@@ -19968,7 +19968,7 @@
         <v>65</v>
       </c>
       <c r="B166" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C166" s="25" t="s">
         <v>23</v>
@@ -19980,14 +19980,14 @@
         <v>69</v>
       </c>
       <c r="F166" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G166" s="13"/>
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
       <c r="J166" s="13"/>
       <c r="K166" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L166" s="29"/>
       <c r="M166" s="29"/>
@@ -20019,7 +20019,7 @@
         <v>65</v>
       </c>
       <c r="B167" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C167" s="25" t="s">
         <v>23</v>
@@ -20031,14 +20031,14 @@
         <v>70</v>
       </c>
       <c r="F167" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G167" s="13"/>
       <c r="H167" s="13"/>
       <c r="I167" s="13"/>
       <c r="J167" s="13"/>
       <c r="K167" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L167" s="29">
         <v>40.5</v>
@@ -20106,14 +20106,14 @@
         <v>70</v>
       </c>
       <c r="F168" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G168" s="13"/>
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
       <c r="J168" s="13"/>
       <c r="K168" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L168" s="29">
         <v>54</v>
@@ -20181,14 +20181,14 @@
         <v>70</v>
       </c>
       <c r="F169" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G169" s="13"/>
       <c r="H169" s="13"/>
       <c r="I169" s="13"/>
       <c r="J169" s="13"/>
       <c r="K169" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L169" s="29">
         <v>54</v>
@@ -20239,12 +20239,12 @@
       <c r="AB169" s="13"/>
       <c r="AC169" s="13"/>
     </row>
-    <row r="170" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A170" s="33" t="s">
         <v>65</v>
       </c>
       <c r="B170" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C170" s="25" t="s">
         <v>23</v>
@@ -20256,14 +20256,14 @@
         <v>62</v>
       </c>
       <c r="F170" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G170" s="13"/>
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
       <c r="J170" s="13"/>
       <c r="K170" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L170" s="29">
         <v>650</v>
@@ -20331,14 +20331,14 @@
         <v>63</v>
       </c>
       <c r="F171" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G171" s="13"/>
       <c r="H171" s="13"/>
       <c r="I171" s="13"/>
       <c r="J171" s="13"/>
       <c r="K171" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L171" s="29">
         <v>300</v>
@@ -20394,7 +20394,7 @@
         <v>65</v>
       </c>
       <c r="B172" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C172" s="25" t="s">
         <v>23</v>
@@ -20403,17 +20403,17 @@
         <v>23</v>
       </c>
       <c r="E172" s="25" t="s">
-        <v>71</v>
+        <v>293</v>
       </c>
       <c r="F172" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G172" s="13"/>
       <c r="H172" s="13"/>
       <c r="I172" s="13"/>
       <c r="J172" s="13"/>
       <c r="K172" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L172" s="29">
         <v>225</v>
@@ -20469,7 +20469,7 @@
         <v>65</v>
       </c>
       <c r="B173" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C173" s="25" t="s">
         <v>23</v>
@@ -20481,14 +20481,14 @@
         <v>64</v>
       </c>
       <c r="F173" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G173" s="13"/>
       <c r="H173" s="13"/>
       <c r="I173" s="13"/>
       <c r="J173" s="13"/>
       <c r="K173" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L173" s="29">
         <v>180</v>
@@ -20553,17 +20553,17 @@
         <v>23</v>
       </c>
       <c r="E174" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F174" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G174" s="13"/>
       <c r="H174" s="13"/>
       <c r="I174" s="13"/>
       <c r="J174" s="13"/>
       <c r="K174" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L174" s="29">
         <v>800</v>
@@ -20614,12 +20614,12 @@
       <c r="AB174" s="13"/>
       <c r="AC174" s="13"/>
     </row>
-    <row r="175" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A175" s="33" t="s">
         <v>65</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C175" s="25" t="s">
         <v>23</v>
@@ -20628,17 +20628,17 @@
         <v>23</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F175" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G175" s="13"/>
       <c r="H175" s="13"/>
       <c r="I175" s="13"/>
       <c r="J175" s="13"/>
       <c r="K175" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L175" s="28">
         <v>0.55000000000000004</v>
@@ -20703,17 +20703,17 @@
         <v>23</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F176" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G176" s="13"/>
       <c r="H176" s="13"/>
       <c r="I176" s="13"/>
       <c r="J176" s="13"/>
       <c r="K176" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L176" s="28">
         <v>8</v>
@@ -20778,17 +20778,17 @@
         <v>23</v>
       </c>
       <c r="E177" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F177" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G177" s="13"/>
       <c r="H177" s="13"/>
       <c r="I177" s="13"/>
       <c r="J177" s="13"/>
       <c r="K177" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L177" s="28">
         <v>0.22399999999999998</v>
@@ -20853,17 +20853,17 @@
         <v>23</v>
       </c>
       <c r="E178" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F178" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G178" s="13"/>
       <c r="H178" s="13"/>
       <c r="I178" s="13"/>
       <c r="J178" s="13"/>
       <c r="K178" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L178" s="28">
         <v>0.23566468907932331</v>
@@ -20919,7 +20919,7 @@
         <v>65</v>
       </c>
       <c r="B179" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C179" s="25" t="s">
         <v>23</v>
@@ -20928,17 +20928,17 @@
         <v>23</v>
       </c>
       <c r="E179" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F179" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G179" s="13"/>
       <c r="H179" s="13"/>
       <c r="I179" s="13"/>
       <c r="J179" s="13"/>
       <c r="K179" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L179" s="31">
         <v>0.12337319277108433</v>
@@ -21003,17 +21003,17 @@
         <v>23</v>
       </c>
       <c r="E180" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F180" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G180" s="13"/>
       <c r="H180" s="13"/>
       <c r="I180" s="13"/>
       <c r="J180" s="13"/>
       <c r="K180" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L180" s="31">
         <v>6.9641277641277644E-2</v>
@@ -21125,16 +21125,16 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="E1" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
@@ -21143,34 +21143,34 @@
       <c r="B2"/>
       <c r="C2" s="5"/>
       <c r="E2" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
         <v>131</v>
       </c>
-      <c r="C3" t="s">
-        <v>132</v>
-      </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="8">
         <v>0.2041</v>
@@ -21192,7 +21192,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="8">
         <v>0.20469999999999999</v>
@@ -21214,7 +21214,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="8">
         <v>0.21959999999999999</v>
@@ -21236,7 +21236,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="8">
         <v>0.27989999999999998</v>
@@ -21258,7 +21258,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="8">
         <v>9.5500000000000002E-2</v>
@@ -21280,7 +21280,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="8">
         <v>0.14380000000000001</v>
@@ -21302,7 +21302,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="8">
         <v>0.3049</v>
@@ -21324,7 +21324,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="8">
         <v>0.30480000000000002</v>
@@ -21346,7 +21346,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="8">
         <v>0.1207</v>
@@ -21368,7 +21368,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="8">
         <v>0.23050000000000001</v>
@@ -21390,7 +21390,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="8">
         <v>0.19359999999999999</v>
@@ -21412,7 +21412,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="8">
         <v>0.2296</v>
@@ -21434,7 +21434,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="8">
         <v>0.16900000000000001</v>
@@ -21456,7 +21456,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="8">
         <v>0.1196</v>
@@ -21478,7 +21478,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="8">
         <v>0.2132</v>
@@ -21500,7 +21500,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="8">
         <v>0.18629999999999999</v>
@@ -21522,7 +21522,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="8">
         <v>0.15859999999999999</v>
@@ -21544,7 +21544,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="8">
         <v>0.1116</v>
@@ -21566,7 +21566,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="8">
         <v>0.1615</v>
@@ -21588,7 +21588,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="8">
         <v>0.1125</v>
@@ -21610,7 +21610,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="8">
         <v>0.1328</v>
@@ -21632,7 +21632,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="8">
         <v>0.15620000000000001</v>
@@ -21654,7 +21654,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="8">
         <v>0.19500000000000001</v>
@@ -21676,7 +21676,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" s="8">
         <v>0.1457</v>
@@ -21698,7 +21698,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28" s="8">
         <v>0.22839999999999999</v>
@@ -21720,7 +21720,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" s="8">
         <v>0.1198</v>
@@ -21742,7 +21742,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" s="8">
         <v>0.16089999999999999</v>
@@ -21764,7 +21764,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31" s="8">
         <v>0.14349999999999999</v>
@@ -21786,7 +21786,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32" s="8">
         <v>0.15809999999999999</v>
@@ -21808,7 +21808,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B33" s="8">
         <v>0.19359999999999999</v>
@@ -21830,7 +21830,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B34" s="8">
         <v>0.17660000000000001</v>
@@ -21852,7 +21852,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B35" s="8">
         <v>0.1598</v>
@@ -21874,7 +21874,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B36" s="8">
         <v>0.1724</v>
@@ -21896,7 +21896,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B37" s="8">
         <v>0.16420000000000001</v>
@@ -21918,7 +21918,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B38" s="8">
         <v>9.7199999999999995E-2</v>
@@ -21940,7 +21940,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39" s="8">
         <v>8.2000000000000003E-2</v>
@@ -21962,7 +21962,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B40" s="8">
         <v>8.4400000000000003E-2</v>
@@ -21974,7 +21974,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B41" s="8">
         <v>6.6400000000000001E-2</v>
@@ -21996,7 +21996,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" s="8">
         <v>0.1048</v>
@@ -22018,7 +22018,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B43" s="8">
         <v>8.5900000000000004E-2</v>
@@ -22040,7 +22040,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B44" s="8">
         <v>6.6199999999999995E-2</v>
@@ -22062,7 +22062,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B45" s="8">
         <v>9.7699999999999995E-2</v>
@@ -22084,14 +22084,14 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B46" s="8">
         <v>3.9300000000000002E-2</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G46" s="11">
         <f>MIN(G4:G45)</f>
@@ -22100,7 +22100,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G47" s="11">
         <f>MAX(G4:G46)</f>
@@ -22109,7 +22109,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G48" s="11">
         <f>AVERAGE(G4:G45)</f>
@@ -22154,20 +22154,20 @@
   <sheetData>
     <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P1" s="36"/>
       <c r="Q1" s="36"/>
     </row>
     <row r="2" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -22176,98 +22176,98 @@
       <c r="G2" s="36"/>
       <c r="H2" s="10"/>
       <c r="I2" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
       <c r="L2" s="36"/>
       <c r="O2" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>59</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>59</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>59</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="U4" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="T4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="9">
         <v>1.282</v>
@@ -22346,7 +22346,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="9">
         <v>1.3312999999999999</v>
@@ -22425,7 +22425,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="9">
         <v>1.03298</v>
@@ -22504,7 +22504,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="9">
         <v>1.27772</v>
@@ -22583,7 +22583,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="9">
         <v>1.2438800000000001</v>
@@ -22654,7 +22654,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="9">
         <v>1.24837</v>
@@ -22733,7 +22733,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="9">
         <v>1.47678</v>
@@ -22812,7 +22812,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="9">
         <v>1.26</v>
@@ -22891,7 +22891,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="9">
         <v>1.484</v>
@@ -22970,7 +22970,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="9">
         <v>1.4304700000000001</v>
@@ -23049,7 +23049,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="9">
         <v>1.4850000000000001</v>
@@ -23128,7 +23128,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="9">
         <v>1.53</v>
@@ -23197,7 +23197,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="9">
         <v>1.0971900000000001</v>
@@ -23276,7 +23276,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="9">
         <v>1.4790000000000001</v>
@@ -23347,7 +23347,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" s="9">
         <v>1.5652999999999999</v>
@@ -23426,7 +23426,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="9">
         <v>1.24444</v>
@@ -23497,7 +23497,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="9">
         <v>1.1469500000000001</v>
@@ -23568,7 +23568,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="9">
         <v>1.137</v>
@@ -23647,7 +23647,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="9">
         <v>1.36</v>
@@ -23718,7 +23718,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="9">
         <v>1.538</v>
@@ -23797,7 +23797,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" s="9">
         <v>1.1467499999999999</v>
@@ -23876,7 +23876,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" s="9">
         <v>1.448</v>
@@ -23955,7 +23955,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B27" s="9">
         <v>1.10832</v>
@@ -24034,7 +24034,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28" s="9">
         <v>1.2669999999999999</v>
@@ -24113,7 +24113,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B29" s="9">
         <v>1.27155</v>
@@ -24192,7 +24192,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" s="9">
         <v>1.2418699999999998</v>
@@ -24271,7 +24271,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B31" s="9">
         <v>1.39808</v>
@@ -24350,7 +24350,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" s="9">
         <v>1.39429</v>
@@ -24429,7 +24429,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B33" s="9">
         <v>1.4025799999999999</v>
@@ -24484,7 +24484,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H35" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I35" s="6">
         <f>MIN(I5:I33)</f>
@@ -24503,7 +24503,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U35" s="6">
         <f>MIN(U5:U33)</f>
@@ -24516,7 +24516,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H36" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I36" s="6">
         <f>MAX(I5:I33)</f>
@@ -24535,7 +24535,7 @@
         <v>8.1439156626506026E-2</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U36" s="6">
         <f>MAX(U5:U33)</f>
@@ -24548,7 +24548,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H37" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I37" s="6">
         <f>I33</f>
@@ -24567,7 +24567,7 @@
         <v>6.651325301204819E-2</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U37" s="2">
         <f>AVERAGE(U5:U32)</f>

--- a/dev/Input data.xlsx
+++ b/dev/Input data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="14016" tabRatio="518"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25830" windowHeight="14010" tabRatio="518"/>
   </bookViews>
   <sheets>
     <sheet name="Car parameters" sheetId="22" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="European Fossil fuel prices" sheetId="26" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Car parameters'!$A$2:$W$280</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Car parameters'!$A$2:$AC$280</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1204,14 +1204,14 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -5547,36 +5547,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R172" sqref="R172"/>
+      <selection pane="bottomRight" activeCell="R281" sqref="R281"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="12" customWidth="1"/>
-    <col min="10" max="10" width="33.5546875" style="12" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.21875" style="1"/>
+    <col min="22" max="23" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="25.95" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>235</v>
       </c>
@@ -5665,7 +5666,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L2" s="33" t="s">
         <v>13</v>
       </c>
@@ -5721,7 +5722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>37</v>
       </c>
@@ -5808,7 +5809,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
         <v>37</v>
       </c>
@@ -5895,7 +5896,7 @@
         <v>975000</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>37</v>
       </c>
@@ -5982,7 +5983,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
         <v>37</v>
       </c>
@@ -6069,7 +6070,7 @@
         <v>840000</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
         <v>37</v>
       </c>
@@ -6156,7 +6157,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>37</v>
       </c>
@@ -6245,7 +6246,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
         <v>37</v>
       </c>
@@ -6344,7 +6345,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>37</v>
       </c>
@@ -6443,7 +6444,7 @@
         <v>81250</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
         <v>37</v>
       </c>
@@ -6542,7 +6543,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
         <v>37</v>
       </c>
@@ -6641,7 +6642,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
         <v>37</v>
       </c>
@@ -6740,7 +6741,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="25.95" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
         <v>37</v>
       </c>
@@ -6841,7 +6842,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
         <v>29</v>
       </c>
@@ -6902,7 +6903,7 @@
       <c r="AB15" s="15"/>
       <c r="AC15" s="15"/>
     </row>
-    <row r="16" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>29</v>
       </c>
@@ -6963,7 +6964,7 @@
       <c r="AB16" s="15"/>
       <c r="AC16" s="15"/>
     </row>
-    <row r="17" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
         <v>29</v>
       </c>
@@ -7024,7 +7025,7 @@
       <c r="AB17" s="15"/>
       <c r="AC17" s="15"/>
     </row>
-    <row r="18" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
         <v>29</v>
       </c>
@@ -7085,7 +7086,7 @@
       <c r="AB18" s="15"/>
       <c r="AC18" s="15"/>
     </row>
-    <row r="19" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
         <v>29</v>
       </c>
@@ -7146,7 +7147,7 @@
       <c r="AB19" s="15"/>
       <c r="AC19" s="15"/>
     </row>
-    <row r="20" spans="1:29" ht="25.95" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
         <v>29</v>
       </c>
@@ -7207,7 +7208,7 @@
       <c r="AB20" s="15"/>
       <c r="AC20" s="15"/>
     </row>
-    <row r="21" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
         <v>29</v>
       </c>
@@ -7308,7 +7309,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>29</v>
       </c>
@@ -7409,7 +7410,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
         <v>29</v>
       </c>
@@ -7510,7 +7511,7 @@
         <v>768.75</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
         <v>29</v>
       </c>
@@ -7611,7 +7612,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" s="40" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
         <v>29</v>
       </c>
@@ -7712,7 +7713,7 @@
         <v>4298.75</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="40" customFormat="1" ht="25.95" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:29" s="40" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
         <v>29</v>
       </c>
@@ -7813,7 +7814,7 @@
         <v>6448.75</v>
       </c>
     </row>
-    <row r="27" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
         <v>29</v>
       </c>
@@ -7914,7 +7915,7 @@
         <v>387.5</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>29</v>
       </c>
@@ -8015,7 +8016,7 @@
         <v>831.25</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
         <v>29</v>
       </c>
@@ -8116,7 +8117,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
         <v>29</v>
       </c>
@@ -8217,7 +8218,7 @@
         <v>2881.25</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" s="40" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
         <v>29</v>
       </c>
@@ -8318,7 +8319,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="40" customFormat="1" ht="25.95" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29" s="40" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
         <v>29</v>
       </c>
@@ -8419,7 +8420,7 @@
         <v>4980</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
         <v>29</v>
       </c>
@@ -8520,7 +8521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
         <v>29</v>
       </c>
@@ -8621,7 +8622,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
         <v>29</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>156.25</v>
       </c>
     </row>
-    <row r="36" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
         <v>29</v>
       </c>
@@ -8823,7 +8824,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:29" s="40" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
         <v>29</v>
       </c>
@@ -8924,7 +8925,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="38" spans="1:29" s="40" customFormat="1" ht="25.95" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:29" s="40" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
         <v>29</v>
       </c>
@@ -9025,7 +9026,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="39" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
         <v>29</v>
       </c>
@@ -9126,7 +9127,7 @@
         <v>242.5</v>
       </c>
     </row>
-    <row r="40" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
         <v>29</v>
       </c>
@@ -9227,7 +9228,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="41" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
         <v>29</v>
       </c>
@@ -9328,7 +9329,7 @@
         <v>1247.5</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
         <v>29</v>
       </c>
@@ -9429,7 +9430,7 @@
         <v>1801.25</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:29" s="40" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
         <v>29</v>
       </c>
@@ -9530,7 +9531,7 @@
         <v>1777.5</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="40" customFormat="1" ht="25.95" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:29" s="40" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
         <v>29</v>
       </c>
@@ -9631,7 +9632,7 @@
         <v>2666.25</v>
       </c>
     </row>
-    <row r="45" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
         <v>29</v>
       </c>
@@ -9732,7 +9733,7 @@
         <v>218.75</v>
       </c>
     </row>
-    <row r="46" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
         <v>29</v>
       </c>
@@ -9833,7 +9834,7 @@
         <v>468.75</v>
       </c>
     </row>
-    <row r="47" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
         <v>29</v>
       </c>
@@ -9934,7 +9935,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="48" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
         <v>29</v>
       </c>
@@ -10035,7 +10036,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="49" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:29" s="40" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
         <v>29</v>
       </c>
@@ -10136,7 +10137,7 @@
         <v>1441.25</v>
       </c>
     </row>
-    <row r="50" spans="1:29" s="40" customFormat="1" ht="25.95" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:29" s="40" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
         <v>29</v>
       </c>
@@ -10237,7 +10238,7 @@
         <v>2162.5</v>
       </c>
     </row>
-    <row r="51" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="36" t="s">
         <v>29</v>
       </c>
@@ -10338,7 +10339,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="36" t="s">
         <v>29</v>
       </c>
@@ -10439,7 +10440,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="53" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
         <v>29</v>
       </c>
@@ -10540,7 +10541,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="54" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="36" t="s">
         <v>29</v>
       </c>
@@ -10641,7 +10642,7 @@
         <v>406.25</v>
       </c>
     </row>
-    <row r="55" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:29" s="40" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="36" t="s">
         <v>29</v>
       </c>
@@ -10742,7 +10743,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="56" spans="1:29" s="40" customFormat="1" ht="25.95" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:29" s="40" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="36" t="s">
         <v>29</v>
       </c>
@@ -10843,7 +10844,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="57" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="36" t="s">
         <v>29</v>
       </c>
@@ -10944,7 +10945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="36" t="s">
         <v>29</v>
       </c>
@@ -11045,7 +11046,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
         <v>29</v>
       </c>
@@ -11146,7 +11147,7 @@
         <v>156.25</v>
       </c>
     </row>
-    <row r="60" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="36" t="s">
         <v>29</v>
       </c>
@@ -11247,7 +11248,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:29" s="40" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="36" t="s">
         <v>29</v>
       </c>
@@ -11348,7 +11349,7 @@
         <v>331.25</v>
       </c>
     </row>
-    <row r="62" spans="1:29" s="40" customFormat="1" ht="25.95" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:29" s="40" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
         <v>29</v>
       </c>
@@ -11449,7 +11450,7 @@
         <v>497.5</v>
       </c>
     </row>
-    <row r="63" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="36" t="s">
         <v>29</v>
       </c>
@@ -11550,7 +11551,7 @@
         <v>823.75</v>
       </c>
     </row>
-    <row r="64" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="36" t="s">
         <v>29</v>
       </c>
@@ -11651,7 +11652,7 @@
         <v>1766.25</v>
       </c>
     </row>
-    <row r="65" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="36" t="s">
         <v>29</v>
       </c>
@@ -11752,7 +11753,7 @@
         <v>4237.5</v>
       </c>
     </row>
-    <row r="66" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:29" s="40" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="36" t="s">
         <v>29</v>
       </c>
@@ -11853,7 +11854,7 @@
         <v>6121.25</v>
       </c>
     </row>
-    <row r="67" spans="1:29" s="40" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:29" s="40" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="36" t="s">
         <v>29</v>
       </c>
@@ -11954,7 +11955,7 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="68" spans="1:29" s="40" customFormat="1" ht="25.95" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:29" s="40" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="36" t="s">
         <v>29</v>
       </c>
@@ -12055,7 +12056,7 @@
         <v>5062.5</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="25.95" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
         <v>29</v>
       </c>
@@ -12156,7 +12157,7 @@
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="33" t="s">
         <v>29</v>
       </c>
@@ -12257,7 +12258,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33" t="s">
         <v>29</v>
       </c>
@@ -12346,7 +12347,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="33" t="s">
         <v>29</v>
       </c>
@@ -12435,7 +12436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33" t="s">
         <v>29</v>
       </c>
@@ -12524,7 +12525,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="33" t="s">
         <v>29</v>
       </c>
@@ -12613,7 +12614,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33" t="s">
         <v>29</v>
       </c>
@@ -12702,7 +12703,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="25.95" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33" t="s">
         <v>29</v>
       </c>
@@ -12791,7 +12792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33" t="s">
         <v>29</v>
       </c>
@@ -12880,7 +12881,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33" t="s">
         <v>29</v>
       </c>
@@ -12969,7 +12970,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="33" t="s">
         <v>29</v>
       </c>
@@ -13058,7 +13059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="33" t="s">
         <v>29</v>
       </c>
@@ -13147,7 +13148,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="33" t="s">
         <v>29</v>
       </c>
@@ -13236,7 +13237,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="25.95" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="33" t="s">
         <v>29</v>
       </c>
@@ -13325,7 +13326,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="33" t="s">
         <v>29</v>
       </c>
@@ -13412,7 +13413,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33" t="s">
         <v>29</v>
       </c>
@@ -13499,7 +13500,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="33" t="s">
         <v>29</v>
       </c>
@@ -13586,7 +13587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="33" t="s">
         <v>29</v>
       </c>
@@ -13673,7 +13674,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="33" t="s">
         <v>29</v>
       </c>
@@ -13762,7 +13763,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="33" t="s">
         <v>29</v>
       </c>
@@ -13851,7 +13852,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="33" t="s">
         <v>29</v>
       </c>
@@ -13940,7 +13941,7 @@
         <v>10900</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="33" t="s">
         <v>29</v>
       </c>
@@ -14029,7 +14030,7 @@
         <v>16400</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="33" t="s">
         <v>29</v>
       </c>
@@ -14118,7 +14119,7 @@
         <v>28100</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="25.95" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="33" t="s">
         <v>29</v>
       </c>
@@ -14207,7 +14208,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="93" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
         <v>29</v>
       </c>
@@ -14296,7 +14297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="33" t="s">
         <v>29</v>
       </c>
@@ -14385,7 +14386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="33" t="s">
         <v>29</v>
       </c>
@@ -14474,7 +14475,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="33" t="s">
         <v>29</v>
       </c>
@@ -14563,7 +14564,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="97" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="33" t="s">
         <v>29</v>
       </c>
@@ -14652,7 +14653,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="98" spans="1:29" ht="25.95" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
         <v>29</v>
       </c>
@@ -14741,7 +14742,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="99" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="33" t="s">
         <v>30</v>
       </c>
@@ -14799,7 +14800,7 @@
         <f t="shared" si="37"/>
         <v>0.84787499999999993</v>
       </c>
-      <c r="R99" s="44">
+      <c r="R99" s="42">
         <v>0.85</v>
       </c>
       <c r="S99" s="21">
@@ -14847,7 +14848,7 @@
         <v>0.91954364249999998</v>
       </c>
     </row>
-    <row r="100" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="33" t="s">
         <v>30</v>
       </c>
@@ -14905,7 +14906,7 @@
         <f t="shared" si="37"/>
         <v>0.84787499999999993</v>
       </c>
-      <c r="R100" s="44">
+      <c r="R100" s="42">
         <v>0.85</v>
       </c>
       <c r="S100" s="21">
@@ -14953,7 +14954,7 @@
         <v>0.91954364249999998</v>
       </c>
     </row>
-    <row r="101" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="33" t="s">
         <v>30</v>
       </c>
@@ -15011,7 +15012,7 @@
         <f t="shared" si="37"/>
         <v>0.84787499999999993</v>
       </c>
-      <c r="R101" s="44">
+      <c r="R101" s="42">
         <v>0.85</v>
       </c>
       <c r="S101" s="21">
@@ -15059,7 +15060,7 @@
         <v>0.91954364249999998</v>
       </c>
     </row>
-    <row r="102" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="33" t="s">
         <v>30</v>
       </c>
@@ -15117,7 +15118,7 @@
         <f t="shared" si="37"/>
         <v>0.88278749999999995</v>
       </c>
-      <c r="R102" s="44">
+      <c r="R102" s="42">
         <v>0.88500000000000001</v>
       </c>
       <c r="S102" s="21">
@@ -15165,7 +15166,7 @@
         <v>0.95740720425000014</v>
       </c>
     </row>
-    <row r="103" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="33" t="s">
         <v>30</v>
       </c>
@@ -15223,7 +15224,7 @@
         <f t="shared" si="37"/>
         <v>0.86782499999999996</v>
       </c>
-      <c r="R103" s="44">
+      <c r="R103" s="42">
         <v>0.87</v>
       </c>
       <c r="S103" s="21">
@@ -15271,7 +15272,7 @@
         <v>0.94117996349999999</v>
       </c>
     </row>
-    <row r="104" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="33" t="s">
         <v>30</v>
       </c>
@@ -15329,7 +15330,7 @@
         <f t="shared" si="37"/>
         <v>0.89775000000000005</v>
       </c>
-      <c r="R104" s="44">
+      <c r="R104" s="42">
         <v>0.9</v>
       </c>
       <c r="S104" s="21">
@@ -15377,7 +15378,7 @@
         <v>0.97363444499999996</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="33" t="s">
         <v>30</v>
       </c>
@@ -15483,7 +15484,7 @@
         <v>0.91954364249999998</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="33" t="s">
         <v>30</v>
       </c>
@@ -15589,7 +15590,7 @@
         <v>0.91954364249999998</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="33" t="s">
         <v>30</v>
       </c>
@@ -15695,7 +15696,7 @@
         <v>0.91954364249999998</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="33" t="s">
         <v>30</v>
       </c>
@@ -15801,7 +15802,7 @@
         <v>0.95740720425000014</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="33" t="s">
         <v>30</v>
       </c>
@@ -15907,7 +15908,7 @@
         <v>0.94117996349999999</v>
       </c>
     </row>
-    <row r="110" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="33" t="s">
         <v>30</v>
       </c>
@@ -16013,7 +16014,7 @@
         <v>0.97363444499999996</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="33" t="s">
         <v>30</v>
       </c>
@@ -16114,7 +16115,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A112" s="33" t="s">
         <v>30</v>
       </c>
@@ -16150,7 +16151,7 @@
       </c>
       <c r="L112" s="21">
         <f t="shared" si="59"/>
-        <v>0.21208749999999996</v>
+        <v>0.243675</v>
       </c>
       <c r="M112" s="21">
         <f t="shared" si="59"/>
@@ -16162,7 +16163,7 @@
       </c>
       <c r="O112" s="21">
         <f t="shared" si="59"/>
-        <v>0.22324999999999998</v>
+        <v>0.25650000000000001</v>
       </c>
       <c r="P112" s="21">
         <f t="shared" si="59"/>
@@ -16172,8 +16173,8 @@
         <f t="shared" si="59"/>
         <v>0.3705</v>
       </c>
-      <c r="R112" s="44">
-        <v>0.23499999999999999</v>
+      <c r="R112" s="42">
+        <v>0.27</v>
       </c>
       <c r="S112" s="21">
         <v>0.33</v>
@@ -16183,7 +16184,7 @@
       </c>
       <c r="U112" s="31">
         <f>R112*0.99</f>
-        <v>0.23265</v>
+        <v>0.26730000000000004</v>
       </c>
       <c r="V112" s="31">
         <f t="shared" ref="V112:AC117" si="66">S112*0.99</f>
@@ -16195,7 +16196,7 @@
       </c>
       <c r="X112" s="31">
         <f t="shared" si="66"/>
-        <v>0.23032349999999999</v>
+        <v>0.26462700000000006</v>
       </c>
       <c r="Y112" s="31">
         <f t="shared" si="66"/>
@@ -16207,7 +16208,7 @@
       </c>
       <c r="AA112" s="31">
         <f t="shared" si="66"/>
-        <v>0.22802026499999997</v>
+        <v>0.26198073000000005</v>
       </c>
       <c r="AB112" s="31">
         <f t="shared" si="66"/>
@@ -16218,7 +16219,7 @@
         <v>0.37841660999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A113" s="33" t="s">
         <v>30</v>
       </c>
@@ -16254,7 +16255,7 @@
       </c>
       <c r="L113" s="21">
         <f t="shared" ref="L113:L117" si="67">O113*0.95</f>
-        <v>0.24818749999999998</v>
+        <v>0.279775</v>
       </c>
       <c r="M113" s="21">
         <f t="shared" ref="M113:Q117" si="68">P113*0.95</f>
@@ -16266,7 +16267,7 @@
       </c>
       <c r="O113" s="21">
         <f t="shared" si="68"/>
-        <v>0.26124999999999998</v>
+        <v>0.29449999999999998</v>
       </c>
       <c r="P113" s="21">
         <f t="shared" si="68"/>
@@ -16276,8 +16277,8 @@
         <f t="shared" si="68"/>
         <v>0.38</v>
       </c>
-      <c r="R113" s="44">
-        <v>0.27500000000000002</v>
+      <c r="R113" s="42">
+        <v>0.31</v>
       </c>
       <c r="S113" s="21">
         <v>0.36</v>
@@ -16287,7 +16288,7 @@
       </c>
       <c r="U113" s="31">
         <f t="shared" ref="U113:U117" si="69">R113*0.99</f>
-        <v>0.27224999999999999</v>
+        <v>0.30690000000000001</v>
       </c>
       <c r="V113" s="31">
         <f t="shared" si="66"/>
@@ -16299,7 +16300,7 @@
       </c>
       <c r="X113" s="31">
         <f t="shared" si="66"/>
-        <v>0.26952749999999998</v>
+        <v>0.30383100000000002</v>
       </c>
       <c r="Y113" s="31">
         <f t="shared" si="66"/>
@@ -16311,7 +16312,7 @@
       </c>
       <c r="AA113" s="31">
         <f t="shared" si="66"/>
-        <v>0.26683222499999998</v>
+        <v>0.30079269000000003</v>
       </c>
       <c r="AB113" s="31">
         <f t="shared" si="66"/>
@@ -16322,7 +16323,7 @@
         <v>0.38811960000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A114" s="33" t="s">
         <v>30</v>
       </c>
@@ -16358,7 +16359,7 @@
       </c>
       <c r="L114" s="21">
         <f t="shared" si="67"/>
-        <v>0.31587499999999996</v>
+        <v>0.34294999999999998</v>
       </c>
       <c r="M114" s="21">
         <f t="shared" si="68"/>
@@ -16370,7 +16371,7 @@
       </c>
       <c r="O114" s="21">
         <f t="shared" si="68"/>
-        <v>0.33249999999999996</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="P114" s="21">
         <f t="shared" si="68"/>
@@ -16380,8 +16381,8 @@
         <f t="shared" si="68"/>
         <v>0.39899999999999997</v>
       </c>
-      <c r="R114" s="44">
-        <v>0.35</v>
+      <c r="R114" s="42">
+        <v>0.38</v>
       </c>
       <c r="S114" s="21">
         <v>0.4</v>
@@ -16391,7 +16392,7 @@
       </c>
       <c r="U114" s="31">
         <f t="shared" si="69"/>
-        <v>0.34649999999999997</v>
+        <v>0.37619999999999998</v>
       </c>
       <c r="V114" s="31">
         <f t="shared" si="66"/>
@@ -16403,7 +16404,7 @@
       </c>
       <c r="X114" s="31">
         <f t="shared" si="66"/>
-        <v>0.34303499999999998</v>
+        <v>0.37243799999999999</v>
       </c>
       <c r="Y114" s="31">
         <f t="shared" si="66"/>
@@ -16415,7 +16416,7 @@
       </c>
       <c r="AA114" s="31">
         <f t="shared" si="66"/>
-        <v>0.33960464999999995</v>
+        <v>0.36871361999999996</v>
       </c>
       <c r="AB114" s="31">
         <f t="shared" si="66"/>
@@ -16426,7 +16427,7 @@
         <v>0.40752558</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A115" s="33" t="s">
         <v>30</v>
       </c>
@@ -16462,7 +16463,7 @@
       </c>
       <c r="L115" s="21">
         <f t="shared" si="67"/>
-        <v>0.32489999999999997</v>
+        <v>0.35197499999999998</v>
       </c>
       <c r="M115" s="21">
         <f t="shared" si="68"/>
@@ -16474,7 +16475,7 @@
       </c>
       <c r="O115" s="21">
         <f t="shared" si="68"/>
-        <v>0.34199999999999997</v>
+        <v>0.3705</v>
       </c>
       <c r="P115" s="21">
         <f t="shared" si="68"/>
@@ -16484,8 +16485,8 @@
         <f t="shared" si="68"/>
         <v>0.39899999999999997</v>
       </c>
-      <c r="R115" s="44">
-        <v>0.36</v>
+      <c r="R115" s="42">
+        <v>0.39</v>
       </c>
       <c r="S115" s="21">
         <v>0.4</v>
@@ -16495,7 +16496,7 @@
       </c>
       <c r="U115" s="31">
         <f t="shared" si="69"/>
-        <v>0.35639999999999999</v>
+        <v>0.3861</v>
       </c>
       <c r="V115" s="31">
         <f t="shared" si="66"/>
@@ -16507,7 +16508,7 @@
       </c>
       <c r="X115" s="31">
         <f t="shared" si="66"/>
-        <v>0.35283599999999998</v>
+        <v>0.382239</v>
       </c>
       <c r="Y115" s="31">
         <f t="shared" si="66"/>
@@ -16519,7 +16520,7 @@
       </c>
       <c r="AA115" s="31">
         <f t="shared" si="66"/>
-        <v>0.34930763999999997</v>
+        <v>0.37841660999999999</v>
       </c>
       <c r="AB115" s="31">
         <f t="shared" si="66"/>
@@ -16530,7 +16531,7 @@
         <v>0.40752558</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" s="33" t="s">
         <v>30</v>
       </c>
@@ -16566,7 +16567,7 @@
       </c>
       <c r="L116" s="21">
         <f t="shared" si="67"/>
-        <v>0.29150749999999997</v>
+        <v>0.31587499999999996</v>
       </c>
       <c r="M116" s="21">
         <f t="shared" si="68"/>
@@ -16578,7 +16579,7 @@
       </c>
       <c r="O116" s="21">
         <f t="shared" si="68"/>
-        <v>0.30685000000000001</v>
+        <v>0.33249999999999996</v>
       </c>
       <c r="P116" s="21">
         <f t="shared" si="68"/>
@@ -16588,8 +16589,8 @@
         <f t="shared" si="68"/>
         <v>0.40849999999999997</v>
       </c>
-      <c r="R116" s="44">
-        <v>0.32300000000000001</v>
+      <c r="R116" s="42">
+        <v>0.35</v>
       </c>
       <c r="S116" s="21">
         <v>0.41</v>
@@ -16599,7 +16600,7 @@
       </c>
       <c r="U116" s="31">
         <f t="shared" si="69"/>
-        <v>0.31977</v>
+        <v>0.34649999999999997</v>
       </c>
       <c r="V116" s="31">
         <f t="shared" si="66"/>
@@ -16611,7 +16612,7 @@
       </c>
       <c r="X116" s="31">
         <f t="shared" si="66"/>
-        <v>0.31657229999999997</v>
+        <v>0.34303499999999998</v>
       </c>
       <c r="Y116" s="31">
         <f t="shared" si="66"/>
@@ -16623,7 +16624,7 @@
       </c>
       <c r="AA116" s="31">
         <f t="shared" si="66"/>
-        <v>0.31340657699999996</v>
+        <v>0.33960464999999995</v>
       </c>
       <c r="AB116" s="31">
         <f t="shared" si="66"/>
@@ -16634,7 +16635,7 @@
         <v>0.41722856999999997</v>
       </c>
     </row>
-    <row r="117" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A117" s="33" t="s">
         <v>30</v>
       </c>
@@ -16670,7 +16671,7 @@
       </c>
       <c r="L117" s="21">
         <f t="shared" si="67"/>
-        <v>0.32670499999999997</v>
+        <v>0.35197499999999998</v>
       </c>
       <c r="M117" s="21">
         <f t="shared" si="68"/>
@@ -16682,7 +16683,7 @@
       </c>
       <c r="O117" s="21">
         <f t="shared" si="68"/>
-        <v>0.34389999999999998</v>
+        <v>0.3705</v>
       </c>
       <c r="P117" s="21">
         <f t="shared" si="68"/>
@@ -16692,8 +16693,8 @@
         <f t="shared" ref="Q117" si="70">1.02*T117</f>
         <v>0.43859999999999999</v>
       </c>
-      <c r="R117" s="44">
-        <v>0.36199999999999999</v>
+      <c r="R117" s="42">
+        <v>0.39</v>
       </c>
       <c r="S117" s="21">
         <v>0.42</v>
@@ -16703,7 +16704,7 @@
       </c>
       <c r="U117" s="31">
         <f t="shared" si="69"/>
-        <v>0.35837999999999998</v>
+        <v>0.3861</v>
       </c>
       <c r="V117" s="31">
         <f t="shared" si="66"/>
@@ -16715,7 +16716,7 @@
       </c>
       <c r="X117" s="31">
         <f t="shared" si="66"/>
-        <v>0.35479619999999995</v>
+        <v>0.382239</v>
       </c>
       <c r="Y117" s="31">
         <f t="shared" si="66"/>
@@ -16727,7 +16728,7 @@
       </c>
       <c r="AA117" s="31">
         <f t="shared" si="66"/>
-        <v>0.35124823799999993</v>
+        <v>0.37841660999999999</v>
       </c>
       <c r="AB117" s="31">
         <f t="shared" si="66"/>
@@ -16738,7 +16739,7 @@
         <v>0.41722856999999997</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="33" t="s">
         <v>30</v>
       </c>
@@ -16839,7 +16840,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A119" s="33" t="s">
         <v>30</v>
       </c>
@@ -16875,7 +16876,7 @@
       </c>
       <c r="L119" s="21">
         <f t="shared" si="71"/>
-        <v>0.24818749999999998</v>
+        <v>0.279775</v>
       </c>
       <c r="M119" s="21">
         <f t="shared" si="71"/>
@@ -16887,7 +16888,7 @@
       </c>
       <c r="O119" s="21">
         <f t="shared" si="71"/>
-        <v>0.26124999999999998</v>
+        <v>0.29449999999999998</v>
       </c>
       <c r="P119" s="21">
         <f t="shared" si="71"/>
@@ -16898,7 +16899,7 @@
         <v>0.3705</v>
       </c>
       <c r="R119" s="21">
-        <v>0.27500000000000002</v>
+        <v>0.31</v>
       </c>
       <c r="S119" s="21">
         <v>0.33</v>
@@ -16908,7 +16909,7 @@
       </c>
       <c r="U119" s="31">
         <f>R119*0.99</f>
-        <v>0.27224999999999999</v>
+        <v>0.30690000000000001</v>
       </c>
       <c r="V119" s="31">
         <f t="shared" ref="V119:V124" si="78">S119*0.99</f>
@@ -16920,7 +16921,7 @@
       </c>
       <c r="X119" s="31">
         <f t="shared" ref="X119:X124" si="80">U119*0.99</f>
-        <v>0.26952749999999998</v>
+        <v>0.30383100000000002</v>
       </c>
       <c r="Y119" s="31">
         <f t="shared" ref="Y119:Y124" si="81">V119*0.99</f>
@@ -16932,7 +16933,7 @@
       </c>
       <c r="AA119" s="31">
         <f t="shared" ref="AA119:AA124" si="83">X119*0.99</f>
-        <v>0.26683222499999998</v>
+        <v>0.30079269000000003</v>
       </c>
       <c r="AB119" s="31">
         <f t="shared" ref="AB119:AB124" si="84">Y119*0.99</f>
@@ -16943,7 +16944,7 @@
         <v>0.37841660999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A120" s="33" t="s">
         <v>30</v>
       </c>
@@ -16979,7 +16980,7 @@
       </c>
       <c r="L120" s="21">
         <f t="shared" ref="L120:L145" si="86">O120*0.95</f>
-        <v>0.30685000000000001</v>
+        <v>0.33392499999999997</v>
       </c>
       <c r="M120" s="21">
         <f t="shared" ref="M120:M145" si="87">P120*0.95</f>
@@ -16991,7 +16992,7 @@
       </c>
       <c r="O120" s="21">
         <f t="shared" ref="O120:O124" si="89">R120*0.95</f>
-        <v>0.32300000000000001</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="P120" s="21">
         <f t="shared" ref="P120:P145" si="90">S120*0.95</f>
@@ -17002,7 +17003,7 @@
         <v>0.38</v>
       </c>
       <c r="R120" s="21">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="S120" s="21">
         <v>0.36</v>
@@ -17012,7 +17013,7 @@
       </c>
       <c r="U120" s="31">
         <f t="shared" ref="U120:U124" si="92">R120*0.99</f>
-        <v>0.33660000000000001</v>
+        <v>0.36630000000000001</v>
       </c>
       <c r="V120" s="31">
         <f t="shared" si="78"/>
@@ -17024,7 +17025,7 @@
       </c>
       <c r="X120" s="31">
         <f t="shared" si="80"/>
-        <v>0.33323400000000003</v>
+        <v>0.36263699999999999</v>
       </c>
       <c r="Y120" s="31">
         <f t="shared" si="81"/>
@@ -17036,7 +17037,7 @@
       </c>
       <c r="AA120" s="31">
         <f t="shared" si="83"/>
-        <v>0.32990166000000004</v>
+        <v>0.35901063</v>
       </c>
       <c r="AB120" s="31">
         <f t="shared" si="84"/>
@@ -17047,7 +17048,7 @@
         <v>0.38811960000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A121" s="33" t="s">
         <v>30</v>
       </c>
@@ -17083,7 +17084,7 @@
       </c>
       <c r="L121" s="21">
         <f t="shared" si="86"/>
-        <v>0.37904999999999994</v>
+        <v>0.40612499999999996</v>
       </c>
       <c r="M121" s="21">
         <f t="shared" si="87"/>
@@ -17095,7 +17096,7 @@
       </c>
       <c r="O121" s="21">
         <f t="shared" si="89"/>
-        <v>0.39899999999999997</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="P121" s="21">
         <f t="shared" si="90"/>
@@ -17106,7 +17107,7 @@
         <v>0.39899999999999997</v>
       </c>
       <c r="R121" s="21">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="S121" s="21">
         <v>0.4</v>
@@ -17116,7 +17117,7 @@
       </c>
       <c r="U121" s="31">
         <f t="shared" si="92"/>
-        <v>0.4158</v>
+        <v>0.44550000000000001</v>
       </c>
       <c r="V121" s="31">
         <f t="shared" si="78"/>
@@ -17128,7 +17129,7 @@
       </c>
       <c r="X121" s="31">
         <f t="shared" si="80"/>
-        <v>0.41164200000000001</v>
+        <v>0.44104500000000002</v>
       </c>
       <c r="Y121" s="31">
         <f t="shared" si="81"/>
@@ -17140,7 +17141,7 @@
       </c>
       <c r="AA121" s="31">
         <f t="shared" si="83"/>
-        <v>0.40752558</v>
+        <v>0.43663455000000001</v>
       </c>
       <c r="AB121" s="31">
         <f t="shared" si="84"/>
@@ -17151,7 +17152,7 @@
         <v>0.40752558</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A122" s="33" t="s">
         <v>30</v>
       </c>
@@ -17187,7 +17188,7 @@
       </c>
       <c r="L122" s="21">
         <f t="shared" si="86"/>
-        <v>0.38356249999999997</v>
+        <v>0.41514999999999996</v>
       </c>
       <c r="M122" s="21">
         <f t="shared" si="87"/>
@@ -17199,7 +17200,7 @@
       </c>
       <c r="O122" s="21">
         <f t="shared" si="89"/>
-        <v>0.40375</v>
+        <v>0.437</v>
       </c>
       <c r="P122" s="21">
         <f t="shared" si="90"/>
@@ -17210,7 +17211,7 @@
         <v>0.39899999999999997</v>
       </c>
       <c r="R122" s="21">
-        <v>0.42499999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="S122" s="21">
         <v>0.4</v>
@@ -17220,7 +17221,7 @@
       </c>
       <c r="U122" s="31">
         <f t="shared" si="92"/>
-        <v>0.42075000000000001</v>
+        <v>0.45540000000000003</v>
       </c>
       <c r="V122" s="31">
         <f t="shared" si="78"/>
@@ -17232,7 +17233,7 @@
       </c>
       <c r="X122" s="31">
         <f t="shared" si="80"/>
-        <v>0.41654249999999998</v>
+        <v>0.45084600000000002</v>
       </c>
       <c r="Y122" s="31">
         <f t="shared" si="81"/>
@@ -17244,7 +17245,7 @@
       </c>
       <c r="AA122" s="31">
         <f t="shared" si="83"/>
-        <v>0.41237707499999998</v>
+        <v>0.44633754000000003</v>
       </c>
       <c r="AB122" s="31">
         <f t="shared" si="84"/>
@@ -17255,7 +17256,7 @@
         <v>0.40752558</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A123" s="33" t="s">
         <v>30</v>
       </c>
@@ -17291,7 +17292,7 @@
       </c>
       <c r="L123" s="21">
         <f t="shared" si="86"/>
-        <v>0.36731749999999991</v>
+        <v>0.39709999999999995</v>
       </c>
       <c r="M123" s="21">
         <f t="shared" si="87"/>
@@ -17303,7 +17304,7 @@
       </c>
       <c r="O123" s="21">
         <f t="shared" si="89"/>
-        <v>0.38664999999999994</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="P123" s="21">
         <f t="shared" si="90"/>
@@ -17314,7 +17315,7 @@
         <v>0.40849999999999997</v>
       </c>
       <c r="R123" s="21">
-        <v>0.40699999999999997</v>
+        <v>0.44</v>
       </c>
       <c r="S123" s="21">
         <v>0.41</v>
@@ -17324,7 +17325,7 @@
       </c>
       <c r="U123" s="31">
         <f t="shared" si="92"/>
-        <v>0.40292999999999995</v>
+        <v>0.43559999999999999</v>
       </c>
       <c r="V123" s="31">
         <f t="shared" si="78"/>
@@ -17336,7 +17337,7 @@
       </c>
       <c r="X123" s="31">
         <f t="shared" si="80"/>
-        <v>0.39890069999999994</v>
+        <v>0.43124399999999996</v>
       </c>
       <c r="Y123" s="31">
         <f t="shared" si="81"/>
@@ -17348,7 +17349,7 @@
       </c>
       <c r="AA123" s="31">
         <f t="shared" si="83"/>
-        <v>0.39491169299999995</v>
+        <v>0.42693155999999993</v>
       </c>
       <c r="AB123" s="31">
         <f t="shared" si="84"/>
@@ -17359,7 +17360,7 @@
         <v>0.41722856999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A124" s="33" t="s">
         <v>30</v>
       </c>
@@ -17395,7 +17396,7 @@
       </c>
       <c r="L124" s="21">
         <f t="shared" si="86"/>
-        <v>0.39980749999999998</v>
+        <v>0.40612499999999996</v>
       </c>
       <c r="M124" s="21">
         <f t="shared" si="87"/>
@@ -17407,7 +17408,7 @@
       </c>
       <c r="O124" s="21">
         <f t="shared" si="89"/>
-        <v>0.42085</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="P124" s="21">
         <f t="shared" si="90"/>
@@ -17418,7 +17419,7 @@
         <v>0.43859999999999999</v>
       </c>
       <c r="R124" s="21">
-        <v>0.443</v>
+        <v>0.45</v>
       </c>
       <c r="S124" s="21">
         <v>0.42</v>
@@ -17428,7 +17429,7 @@
       </c>
       <c r="U124" s="31">
         <f t="shared" si="92"/>
-        <v>0.43857000000000002</v>
+        <v>0.44550000000000001</v>
       </c>
       <c r="V124" s="31">
         <f t="shared" si="78"/>
@@ -17440,7 +17441,7 @@
       </c>
       <c r="X124" s="31">
         <f t="shared" si="80"/>
-        <v>0.43418430000000002</v>
+        <v>0.44104500000000002</v>
       </c>
       <c r="Y124" s="31">
         <f t="shared" si="81"/>
@@ -17452,7 +17453,7 @@
       </c>
       <c r="AA124" s="31">
         <f t="shared" si="83"/>
-        <v>0.42984245700000001</v>
+        <v>0.43663455000000001</v>
       </c>
       <c r="AB124" s="31">
         <f t="shared" si="84"/>
@@ -17463,7 +17464,7 @@
         <v>0.41722856999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="33" t="s">
         <v>30</v>
       </c>
@@ -17521,7 +17522,7 @@
         <f t="shared" ref="Q125:Q142" si="94">T125*0.95</f>
         <v>0.84787499999999993</v>
       </c>
-      <c r="R125" s="44">
+      <c r="R125" s="42">
         <v>0.85</v>
       </c>
       <c r="S125" s="21">
@@ -17569,7 +17570,7 @@
         <v>0.91954364249999998</v>
       </c>
     </row>
-    <row r="126" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="33" t="s">
         <v>30</v>
       </c>
@@ -17627,7 +17628,7 @@
         <f t="shared" si="94"/>
         <v>0.84787499999999993</v>
       </c>
-      <c r="R126" s="44">
+      <c r="R126" s="42">
         <v>0.85</v>
       </c>
       <c r="S126" s="21">
@@ -17675,7 +17676,7 @@
         <v>0.91954364249999998</v>
       </c>
     </row>
-    <row r="127" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="33" t="s">
         <v>30</v>
       </c>
@@ -17733,7 +17734,7 @@
         <f t="shared" si="94"/>
         <v>0.88777500000000009</v>
       </c>
-      <c r="R127" s="44">
+      <c r="R127" s="42">
         <v>0.89</v>
       </c>
       <c r="S127" s="21">
@@ -17781,7 +17782,7 @@
         <v>0.96281628450000012</v>
       </c>
     </row>
-    <row r="128" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="33" t="s">
         <v>30</v>
       </c>
@@ -17839,7 +17840,7 @@
         <f t="shared" si="94"/>
         <v>0.89775000000000005</v>
       </c>
-      <c r="R128" s="44">
+      <c r="R128" s="42">
         <v>0.9</v>
       </c>
       <c r="S128" s="21">
@@ -17887,7 +17888,7 @@
         <v>0.97363444499999996</v>
       </c>
     </row>
-    <row r="129" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="33" t="s">
         <v>30</v>
       </c>
@@ -17945,7 +17946,7 @@
         <f t="shared" si="94"/>
         <v>0.88777500000000009</v>
       </c>
-      <c r="R129" s="44">
+      <c r="R129" s="42">
         <v>0.89</v>
       </c>
       <c r="S129" s="21">
@@ -17993,7 +17994,7 @@
         <v>0.96281628450000012</v>
       </c>
     </row>
-    <row r="130" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="33" t="s">
         <v>30</v>
       </c>
@@ -18051,7 +18052,7 @@
         <f t="shared" si="94"/>
         <v>0.89775000000000005</v>
       </c>
-      <c r="R130" s="44">
+      <c r="R130" s="42">
         <v>0.9</v>
       </c>
       <c r="S130" s="21">
@@ -18099,7 +18100,7 @@
         <v>0.97363444499999996</v>
       </c>
     </row>
-    <row r="131" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="33" t="s">
         <v>30</v>
       </c>
@@ -18205,7 +18206,7 @@
         <v>0.91954364249999998</v>
       </c>
     </row>
-    <row r="132" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="33" t="s">
         <v>30</v>
       </c>
@@ -18311,7 +18312,7 @@
         <v>0.91954364249999998</v>
       </c>
     </row>
-    <row r="133" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="33" t="s">
         <v>30</v>
       </c>
@@ -18417,7 +18418,7 @@
         <v>0.96281628450000012</v>
       </c>
     </row>
-    <row r="134" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="33" t="s">
         <v>30</v>
       </c>
@@ -18523,7 +18524,7 @@
         <v>0.97363444499999996</v>
       </c>
     </row>
-    <row r="135" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="33" t="s">
         <v>30</v>
       </c>
@@ -18629,7 +18630,7 @@
         <v>0.96281628450000012</v>
       </c>
     </row>
-    <row r="136" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="33" t="s">
         <v>30</v>
       </c>
@@ -18735,7 +18736,7 @@
         <v>0.97363444499999996</v>
       </c>
     </row>
-    <row r="137" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="33" t="s">
         <v>30</v>
       </c>
@@ -18836,7 +18837,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="138" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A138" s="33" t="s">
         <v>30</v>
       </c>
@@ -18872,7 +18873,7 @@
       </c>
       <c r="L138" s="21">
         <f t="shared" si="86"/>
-        <v>0.279775</v>
+        <v>0.30685000000000001</v>
       </c>
       <c r="M138" s="21">
         <f t="shared" si="87"/>
@@ -18884,7 +18885,7 @@
       </c>
       <c r="O138" s="21">
         <f t="shared" si="107"/>
-        <v>0.29449999999999998</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="P138" s="21">
         <f t="shared" si="90"/>
@@ -18894,8 +18895,8 @@
         <f t="shared" si="94"/>
         <v>0.3705</v>
       </c>
-      <c r="R138" s="44">
-        <v>0.31</v>
+      <c r="R138" s="42">
+        <v>0.34</v>
       </c>
       <c r="S138" s="21">
         <v>0.33</v>
@@ -18905,7 +18906,7 @@
       </c>
       <c r="U138" s="31">
         <f>R138*0.99</f>
-        <v>0.30690000000000001</v>
+        <v>0.33660000000000001</v>
       </c>
       <c r="V138" s="31">
         <f t="shared" ref="V138:V143" si="117">S138*0.99</f>
@@ -18917,7 +18918,7 @@
       </c>
       <c r="X138" s="31">
         <f t="shared" ref="X138:X143" si="119">U138*0.99</f>
-        <v>0.30383100000000002</v>
+        <v>0.33323400000000003</v>
       </c>
       <c r="Y138" s="31">
         <f t="shared" ref="Y138:Y143" si="120">V138*0.99</f>
@@ -18929,7 +18930,7 @@
       </c>
       <c r="AA138" s="31">
         <f t="shared" ref="AA138:AA143" si="122">X138*0.99</f>
-        <v>0.30079269000000003</v>
+        <v>0.32990166000000004</v>
       </c>
       <c r="AB138" s="31">
         <f t="shared" ref="AB138:AB143" si="123">Y138*0.99</f>
@@ -18940,7 +18941,7 @@
         <v>0.37841660999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A139" s="33" t="s">
         <v>30</v>
       </c>
@@ -18976,7 +18977,7 @@
       </c>
       <c r="L139" s="21">
         <f t="shared" si="86"/>
-        <v>0.29963000000000001</v>
+        <v>0.32489999999999997</v>
       </c>
       <c r="M139" s="21">
         <f t="shared" si="87"/>
@@ -18988,7 +18989,7 @@
       </c>
       <c r="O139" s="21">
         <f t="shared" si="107"/>
-        <v>0.31540000000000001</v>
+        <v>0.34199999999999997</v>
       </c>
       <c r="P139" s="21">
         <f t="shared" si="90"/>
@@ -18998,8 +18999,8 @@
         <f t="shared" si="94"/>
         <v>0.38</v>
       </c>
-      <c r="R139" s="44">
-        <v>0.33200000000000002</v>
+      <c r="R139" s="42">
+        <v>0.36</v>
       </c>
       <c r="S139" s="21">
         <v>0.36</v>
@@ -19009,7 +19010,7 @@
       </c>
       <c r="U139" s="31">
         <f t="shared" ref="U139:U143" si="125">R139*0.99</f>
-        <v>0.32868000000000003</v>
+        <v>0.35639999999999999</v>
       </c>
       <c r="V139" s="31">
         <f t="shared" si="117"/>
@@ -19021,7 +19022,7 @@
       </c>
       <c r="X139" s="31">
         <f t="shared" si="119"/>
-        <v>0.32539320000000005</v>
+        <v>0.35283599999999998</v>
       </c>
       <c r="Y139" s="31">
         <f t="shared" si="120"/>
@@ -19033,7 +19034,7 @@
       </c>
       <c r="AA139" s="31">
         <f t="shared" si="122"/>
-        <v>0.32213926800000003</v>
+        <v>0.34930763999999997</v>
       </c>
       <c r="AB139" s="31">
         <f t="shared" si="123"/>
@@ -19044,7 +19045,7 @@
         <v>0.38811960000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A140" s="33" t="s">
         <v>30</v>
       </c>
@@ -19080,7 +19081,7 @@
       </c>
       <c r="L140" s="21">
         <f t="shared" si="86"/>
-        <v>0.32489999999999997</v>
+        <v>0.35197499999999998</v>
       </c>
       <c r="M140" s="21">
         <f t="shared" si="87"/>
@@ -19092,7 +19093,7 @@
       </c>
       <c r="O140" s="21">
         <f t="shared" si="107"/>
-        <v>0.34199999999999997</v>
+        <v>0.3705</v>
       </c>
       <c r="P140" s="21">
         <f t="shared" si="90"/>
@@ -19102,8 +19103,8 @@
         <f t="shared" si="94"/>
         <v>0.39899999999999997</v>
       </c>
-      <c r="R140" s="44">
-        <v>0.36</v>
+      <c r="R140" s="42">
+        <v>0.39</v>
       </c>
       <c r="S140" s="21">
         <v>0.4</v>
@@ -19113,7 +19114,7 @@
       </c>
       <c r="U140" s="31">
         <f t="shared" si="125"/>
-        <v>0.35639999999999999</v>
+        <v>0.3861</v>
       </c>
       <c r="V140" s="31">
         <f t="shared" si="117"/>
@@ -19125,7 +19126,7 @@
       </c>
       <c r="X140" s="31">
         <f t="shared" si="119"/>
-        <v>0.35283599999999998</v>
+        <v>0.382239</v>
       </c>
       <c r="Y140" s="31">
         <f t="shared" si="120"/>
@@ -19137,7 +19138,7 @@
       </c>
       <c r="AA140" s="31">
         <f t="shared" si="122"/>
-        <v>0.34930763999999997</v>
+        <v>0.37841660999999999</v>
       </c>
       <c r="AB140" s="31">
         <f t="shared" si="123"/>
@@ -19148,7 +19149,7 @@
         <v>0.40752558</v>
       </c>
     </row>
-    <row r="141" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A141" s="33" t="s">
         <v>30</v>
       </c>
@@ -19184,7 +19185,7 @@
       </c>
       <c r="L141" s="21">
         <f t="shared" si="86"/>
-        <v>0.34565750000000001</v>
+        <v>0.37002499999999994</v>
       </c>
       <c r="M141" s="21">
         <f t="shared" si="87"/>
@@ -19196,7 +19197,7 @@
       </c>
       <c r="O141" s="21">
         <f t="shared" si="107"/>
-        <v>0.36385000000000001</v>
+        <v>0.38949999999999996</v>
       </c>
       <c r="P141" s="21">
         <f t="shared" si="90"/>
@@ -19206,8 +19207,8 @@
         <f t="shared" si="94"/>
         <v>0.39899999999999997</v>
       </c>
-      <c r="R141" s="44">
-        <v>0.38300000000000001</v>
+      <c r="R141" s="42">
+        <v>0.41</v>
       </c>
       <c r="S141" s="21">
         <v>0.4</v>
@@ -19217,7 +19218,7 @@
       </c>
       <c r="U141" s="31">
         <f t="shared" si="125"/>
-        <v>0.37917000000000001</v>
+        <v>0.40589999999999998</v>
       </c>
       <c r="V141" s="31">
         <f t="shared" si="117"/>
@@ -19229,7 +19230,7 @@
       </c>
       <c r="X141" s="31">
         <f t="shared" si="119"/>
-        <v>0.3753783</v>
+        <v>0.401841</v>
       </c>
       <c r="Y141" s="31">
         <f t="shared" si="120"/>
@@ -19241,7 +19242,7 @@
       </c>
       <c r="AA141" s="31">
         <f t="shared" si="122"/>
-        <v>0.37162451699999999</v>
+        <v>0.39782258999999998</v>
       </c>
       <c r="AB141" s="31">
         <f t="shared" si="123"/>
@@ -19252,7 +19253,7 @@
         <v>0.40752558</v>
       </c>
     </row>
-    <row r="142" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A142" s="33" t="s">
         <v>30</v>
       </c>
@@ -19288,7 +19289,7 @@
       </c>
       <c r="L142" s="21">
         <f t="shared" si="86"/>
-        <v>0.31948499999999996</v>
+        <v>0.34294999999999998</v>
       </c>
       <c r="M142" s="21">
         <f t="shared" si="87"/>
@@ -19300,7 +19301,7 @@
       </c>
       <c r="O142" s="21">
         <f t="shared" si="107"/>
-        <v>0.33629999999999999</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="P142" s="21">
         <f t="shared" si="90"/>
@@ -19310,8 +19311,8 @@
         <f t="shared" si="94"/>
         <v>0.40849999999999997</v>
       </c>
-      <c r="R142" s="44">
-        <v>0.35399999999999998</v>
+      <c r="R142" s="42">
+        <v>0.38</v>
       </c>
       <c r="S142" s="21">
         <v>0.41</v>
@@ -19321,7 +19322,7 @@
       </c>
       <c r="U142" s="31">
         <f t="shared" si="125"/>
-        <v>0.35045999999999999</v>
+        <v>0.37619999999999998</v>
       </c>
       <c r="V142" s="31">
         <f t="shared" si="117"/>
@@ -19333,7 +19334,7 @@
       </c>
       <c r="X142" s="31">
         <f t="shared" si="119"/>
-        <v>0.34695539999999997</v>
+        <v>0.37243799999999999</v>
       </c>
       <c r="Y142" s="31">
         <f t="shared" si="120"/>
@@ -19345,7 +19346,7 @@
       </c>
       <c r="AA142" s="31">
         <f t="shared" si="122"/>
-        <v>0.34348584599999998</v>
+        <v>0.36871361999999996</v>
       </c>
       <c r="AB142" s="31">
         <f t="shared" si="123"/>
@@ -19356,7 +19357,7 @@
         <v>0.41722856999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A143" s="33" t="s">
         <v>30</v>
       </c>
@@ -19392,7 +19393,7 @@
       </c>
       <c r="L143" s="21">
         <f t="shared" si="86"/>
-        <v>0.35197499999999998</v>
+        <v>0.37904999999999994</v>
       </c>
       <c r="M143" s="21">
         <f t="shared" si="87"/>
@@ -19404,7 +19405,7 @@
       </c>
       <c r="O143" s="21">
         <f t="shared" si="107"/>
-        <v>0.3705</v>
+        <v>0.39899999999999997</v>
       </c>
       <c r="P143" s="21">
         <f t="shared" si="90"/>
@@ -19414,8 +19415,8 @@
         <f t="shared" ref="Q143" si="126">1.02*T143</f>
         <v>0.43859999999999999</v>
       </c>
-      <c r="R143" s="44">
-        <v>0.39</v>
+      <c r="R143" s="42">
+        <v>0.42</v>
       </c>
       <c r="S143" s="21">
         <v>0.42</v>
@@ -19425,7 +19426,7 @@
       </c>
       <c r="U143" s="31">
         <f t="shared" si="125"/>
-        <v>0.3861</v>
+        <v>0.4158</v>
       </c>
       <c r="V143" s="31">
         <f t="shared" si="117"/>
@@ -19437,7 +19438,7 @@
       </c>
       <c r="X143" s="31">
         <f t="shared" si="119"/>
-        <v>0.382239</v>
+        <v>0.41164200000000001</v>
       </c>
       <c r="Y143" s="31">
         <f t="shared" si="120"/>
@@ -19449,7 +19450,7 @@
       </c>
       <c r="AA143" s="31">
         <f t="shared" si="122"/>
-        <v>0.37841660999999999</v>
+        <v>0.40752558</v>
       </c>
       <c r="AB143" s="31">
         <f t="shared" si="123"/>
@@ -19460,7 +19461,7 @@
         <v>0.41722856999999997</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="33" t="s">
         <v>30</v>
       </c>
@@ -19561,7 +19562,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A145" s="33" t="s">
         <v>30</v>
       </c>
@@ -19597,7 +19598,7 @@
       </c>
       <c r="L145" s="21">
         <f t="shared" si="86"/>
-        <v>0.29782500000000001</v>
+        <v>0.32489999999999997</v>
       </c>
       <c r="M145" s="21">
         <f t="shared" si="87"/>
@@ -19609,7 +19610,7 @@
       </c>
       <c r="O145" s="21">
         <f t="shared" si="107"/>
-        <v>0.3135</v>
+        <v>0.34199999999999997</v>
       </c>
       <c r="P145" s="21">
         <f t="shared" si="90"/>
@@ -19620,7 +19621,7 @@
         <v>0.3705</v>
       </c>
       <c r="R145" s="21">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="S145" s="21">
         <v>0.33</v>
@@ -19630,7 +19631,7 @@
       </c>
       <c r="U145" s="31">
         <f>R145*0.99</f>
-        <v>0.32669999999999999</v>
+        <v>0.35639999999999999</v>
       </c>
       <c r="V145" s="31">
         <f t="shared" ref="V145:V150" si="134">S145*0.99</f>
@@ -19642,7 +19643,7 @@
       </c>
       <c r="X145" s="31">
         <f t="shared" ref="X145:X150" si="136">U145*0.99</f>
-        <v>0.32343299999999997</v>
+        <v>0.35283599999999998</v>
       </c>
       <c r="Y145" s="31">
         <f t="shared" ref="Y145:Y150" si="137">V145*0.99</f>
@@ -19654,7 +19655,7 @@
       </c>
       <c r="AA145" s="31">
         <f t="shared" ref="AA145:AA150" si="139">X145*0.99</f>
-        <v>0.32019866999999996</v>
+        <v>0.34930763999999997</v>
       </c>
       <c r="AB145" s="31">
         <f t="shared" ref="AB145:AB150" si="140">Y145*0.99</f>
@@ -19665,7 +19666,7 @@
         <v>0.37841660999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A146" s="33" t="s">
         <v>30</v>
       </c>
@@ -19701,7 +19702,7 @@
       </c>
       <c r="L146" s="21">
         <f t="shared" ref="L146:L171" si="142">O146*0.95</f>
-        <v>0.32489999999999997</v>
+        <v>0.35197499999999998</v>
       </c>
       <c r="M146" s="21">
         <f t="shared" ref="M146:M171" si="143">P146*0.95</f>
@@ -19713,7 +19714,7 @@
       </c>
       <c r="O146" s="21">
         <f t="shared" si="107"/>
-        <v>0.34199999999999997</v>
+        <v>0.3705</v>
       </c>
       <c r="P146" s="21">
         <f t="shared" ref="P146:P171" si="145">S146*0.95</f>
@@ -19724,7 +19725,7 @@
         <v>0.38</v>
       </c>
       <c r="R146" s="21">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="S146" s="21">
         <v>0.36</v>
@@ -19734,7 +19735,7 @@
       </c>
       <c r="U146" s="31">
         <f t="shared" ref="U146:U150" si="146">R146*0.99</f>
-        <v>0.35639999999999999</v>
+        <v>0.3861</v>
       </c>
       <c r="V146" s="31">
         <f t="shared" si="134"/>
@@ -19746,7 +19747,7 @@
       </c>
       <c r="X146" s="31">
         <f t="shared" si="136"/>
-        <v>0.35283599999999998</v>
+        <v>0.382239</v>
       </c>
       <c r="Y146" s="31">
         <f t="shared" si="137"/>
@@ -19758,7 +19759,7 @@
       </c>
       <c r="AA146" s="31">
         <f t="shared" si="139"/>
-        <v>0.34930763999999997</v>
+        <v>0.37841660999999999</v>
       </c>
       <c r="AB146" s="31">
         <f t="shared" si="140"/>
@@ -19769,7 +19770,7 @@
         <v>0.38811960000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A147" s="33" t="s">
         <v>30</v>
       </c>
@@ -19805,7 +19806,7 @@
       </c>
       <c r="L147" s="21">
         <f t="shared" si="142"/>
-        <v>0.38356249999999997</v>
+        <v>0.42417499999999991</v>
       </c>
       <c r="M147" s="21">
         <f t="shared" si="143"/>
@@ -19817,7 +19818,7 @@
       </c>
       <c r="O147" s="21">
         <f t="shared" si="107"/>
-        <v>0.40375</v>
+        <v>0.44649999999999995</v>
       </c>
       <c r="P147" s="21">
         <f t="shared" si="145"/>
@@ -19828,7 +19829,7 @@
         <v>0.39899999999999997</v>
       </c>
       <c r="R147" s="21">
-        <v>0.42499999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="S147" s="21">
         <v>0.4</v>
@@ -19838,7 +19839,7 @@
       </c>
       <c r="U147" s="31">
         <f t="shared" si="146"/>
-        <v>0.42075000000000001</v>
+        <v>0.46529999999999999</v>
       </c>
       <c r="V147" s="31">
         <f t="shared" si="134"/>
@@ -19850,7 +19851,7 @@
       </c>
       <c r="X147" s="31">
         <f t="shared" si="136"/>
-        <v>0.41654249999999998</v>
+        <v>0.46064699999999997</v>
       </c>
       <c r="Y147" s="31">
         <f t="shared" si="137"/>
@@ -19862,7 +19863,7 @@
       </c>
       <c r="AA147" s="31">
         <f t="shared" si="139"/>
-        <v>0.41237707499999998</v>
+        <v>0.45604052999999994</v>
       </c>
       <c r="AB147" s="31">
         <f t="shared" si="140"/>
@@ -19873,7 +19874,7 @@
         <v>0.40752558</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A148" s="33" t="s">
         <v>30</v>
       </c>
@@ -19909,7 +19910,7 @@
       </c>
       <c r="L148" s="21">
         <f t="shared" si="142"/>
-        <v>0.41605249999999999</v>
+        <v>0.44222499999999992</v>
       </c>
       <c r="M148" s="21">
         <f t="shared" si="143"/>
@@ -19921,7 +19922,7 @@
       </c>
       <c r="O148" s="21">
         <f t="shared" si="107"/>
-        <v>0.43795000000000001</v>
+        <v>0.46549999999999997</v>
       </c>
       <c r="P148" s="21">
         <f t="shared" si="145"/>
@@ -19932,7 +19933,7 @@
         <v>0.39899999999999997</v>
       </c>
       <c r="R148" s="21">
-        <v>0.46100000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="S148" s="21">
         <v>0.4</v>
@@ -19942,7 +19943,7 @@
       </c>
       <c r="U148" s="31">
         <f t="shared" si="146"/>
-        <v>0.45639000000000002</v>
+        <v>0.48509999999999998</v>
       </c>
       <c r="V148" s="31">
         <f t="shared" si="134"/>
@@ -19954,7 +19955,7 @@
       </c>
       <c r="X148" s="31">
         <f t="shared" si="136"/>
-        <v>0.45182610000000001</v>
+        <v>0.48024899999999998</v>
       </c>
       <c r="Y148" s="31">
         <f t="shared" si="137"/>
@@ -19966,7 +19967,7 @@
       </c>
       <c r="AA148" s="31">
         <f t="shared" si="139"/>
-        <v>0.44730783899999998</v>
+        <v>0.47544650999999999</v>
       </c>
       <c r="AB148" s="31">
         <f t="shared" si="140"/>
@@ -19977,7 +19978,7 @@
         <v>0.40752558</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A149" s="33" t="s">
         <v>30</v>
       </c>
@@ -20013,7 +20014,7 @@
       </c>
       <c r="L149" s="21">
         <f t="shared" si="142"/>
-        <v>0.37904999999999994</v>
+        <v>0.40612499999999996</v>
       </c>
       <c r="M149" s="21">
         <f t="shared" si="143"/>
@@ -20025,7 +20026,7 @@
       </c>
       <c r="O149" s="21">
         <f t="shared" si="107"/>
-        <v>0.39899999999999997</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="P149" s="21">
         <f t="shared" si="145"/>
@@ -20036,7 +20037,7 @@
         <v>0.40849999999999997</v>
       </c>
       <c r="R149" s="21">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="S149" s="21">
         <v>0.41</v>
@@ -20046,7 +20047,7 @@
       </c>
       <c r="U149" s="31">
         <f t="shared" si="146"/>
-        <v>0.4158</v>
+        <v>0.44550000000000001</v>
       </c>
       <c r="V149" s="31">
         <f t="shared" si="134"/>
@@ -20058,7 +20059,7 @@
       </c>
       <c r="X149" s="31">
         <f t="shared" si="136"/>
-        <v>0.41164200000000001</v>
+        <v>0.44104500000000002</v>
       </c>
       <c r="Y149" s="31">
         <f t="shared" si="137"/>
@@ -20070,7 +20071,7 @@
       </c>
       <c r="AA149" s="31">
         <f t="shared" si="139"/>
-        <v>0.40752558</v>
+        <v>0.43663455000000001</v>
       </c>
       <c r="AB149" s="31">
         <f t="shared" si="140"/>
@@ -20081,7 +20082,7 @@
         <v>0.41722856999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A150" s="33" t="s">
         <v>30</v>
       </c>
@@ -20117,7 +20118,7 @@
       </c>
       <c r="L150" s="21">
         <f t="shared" si="142"/>
-        <v>0.43049249999999994</v>
+        <v>0.46027499999999999</v>
       </c>
       <c r="M150" s="21">
         <f t="shared" si="143"/>
@@ -20129,7 +20130,7 @@
       </c>
       <c r="O150" s="21">
         <f t="shared" si="107"/>
-        <v>0.45314999999999994</v>
+        <v>0.48449999999999999</v>
       </c>
       <c r="P150" s="21">
         <f t="shared" si="145"/>
@@ -20140,7 +20141,7 @@
         <v>0.43859999999999999</v>
       </c>
       <c r="R150" s="21">
-        <v>0.47699999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="S150" s="21">
         <v>0.42</v>
@@ -20150,7 +20151,7 @@
       </c>
       <c r="U150" s="31">
         <f t="shared" si="146"/>
-        <v>0.47222999999999998</v>
+        <v>0.50490000000000002</v>
       </c>
       <c r="V150" s="31">
         <f t="shared" si="134"/>
@@ -20162,7 +20163,7 @@
       </c>
       <c r="X150" s="31">
         <f t="shared" si="136"/>
-        <v>0.46750769999999997</v>
+        <v>0.49985099999999999</v>
       </c>
       <c r="Y150" s="31">
         <f t="shared" si="137"/>
@@ -20174,7 +20175,7 @@
       </c>
       <c r="AA150" s="31">
         <f t="shared" si="139"/>
-        <v>0.46283262299999994</v>
+        <v>0.49485248999999998</v>
       </c>
       <c r="AB150" s="31">
         <f t="shared" si="140"/>
@@ -20185,7 +20186,7 @@
         <v>0.41722856999999997</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="33" t="s">
         <v>30</v>
       </c>
@@ -20243,7 +20244,7 @@
         <f t="shared" ref="Q151:Q168" si="148">T151*0.95</f>
         <v>0.84787499999999993</v>
       </c>
-      <c r="R151" s="44">
+      <c r="R151" s="42">
         <v>0.85</v>
       </c>
       <c r="S151" s="21">
@@ -20291,7 +20292,7 @@
         <v>0.91954364249999998</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="33" t="s">
         <v>30</v>
       </c>
@@ -20349,7 +20350,7 @@
         <f t="shared" si="148"/>
         <v>0.84787499999999993</v>
       </c>
-      <c r="R152" s="44">
+      <c r="R152" s="42">
         <v>0.85</v>
       </c>
       <c r="S152" s="21">
@@ -20397,7 +20398,7 @@
         <v>0.91954364249999998</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="33" t="s">
         <v>30</v>
       </c>
@@ -20455,7 +20456,7 @@
         <f t="shared" si="148"/>
         <v>0.88278749999999995</v>
       </c>
-      <c r="R153" s="44">
+      <c r="R153" s="42">
         <v>0.88500000000000001</v>
       </c>
       <c r="S153" s="21">
@@ -20503,7 +20504,7 @@
         <v>0.95740720425000014</v>
       </c>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="33" t="s">
         <v>30</v>
       </c>
@@ -20561,7 +20562,7 @@
         <f t="shared" si="148"/>
         <v>0.88777500000000009</v>
       </c>
-      <c r="R154" s="44">
+      <c r="R154" s="42">
         <v>0.89</v>
       </c>
       <c r="S154" s="21">
@@ -20609,7 +20610,7 @@
         <v>0.96281628450000012</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="33" t="s">
         <v>30</v>
       </c>
@@ -20667,7 +20668,7 @@
         <f t="shared" si="148"/>
         <v>0.88777500000000009</v>
       </c>
-      <c r="R155" s="44">
+      <c r="R155" s="42">
         <v>0.89</v>
       </c>
       <c r="S155" s="21">
@@ -20715,7 +20716,7 @@
         <v>0.96281628450000012</v>
       </c>
     </row>
-    <row r="156" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="33" t="s">
         <v>30</v>
       </c>
@@ -20773,7 +20774,7 @@
         <f t="shared" si="148"/>
         <v>0.89775000000000005</v>
       </c>
-      <c r="R156" s="44">
+      <c r="R156" s="42">
         <v>0.9</v>
       </c>
       <c r="S156" s="21">
@@ -20821,7 +20822,7 @@
         <v>0.97363444499999996</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="33" t="s">
         <v>30</v>
       </c>
@@ -20927,7 +20928,7 @@
         <v>0.91954364249999998</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="33" t="s">
         <v>30</v>
       </c>
@@ -21033,7 +21034,7 @@
         <v>0.91954364249999998</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="33" t="s">
         <v>30</v>
       </c>
@@ -21139,7 +21140,7 @@
         <v>0.95740720425000014</v>
       </c>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="33" t="s">
         <v>30</v>
       </c>
@@ -21245,7 +21246,7 @@
         <v>0.96281628450000012</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="33" t="s">
         <v>30</v>
       </c>
@@ -21351,7 +21352,7 @@
         <v>0.96281628450000012</v>
       </c>
     </row>
-    <row r="162" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="33" t="s">
         <v>30</v>
       </c>
@@ -21457,7 +21458,7 @@
         <v>0.97363444499999996</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="33" t="s">
         <v>30</v>
       </c>
@@ -21558,7 +21559,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A164" s="33" t="s">
         <v>30</v>
       </c>
@@ -21594,7 +21595,7 @@
       </c>
       <c r="L164" s="21">
         <f t="shared" si="142"/>
-        <v>0.30233749999999998</v>
+        <v>0.33392499999999997</v>
       </c>
       <c r="M164" s="21">
         <f t="shared" si="143"/>
@@ -21606,7 +21607,7 @@
       </c>
       <c r="O164" s="21">
         <f t="shared" si="161"/>
-        <v>0.31824999999999998</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="P164" s="21">
         <f t="shared" si="145"/>
@@ -21616,8 +21617,8 @@
         <f t="shared" si="148"/>
         <v>0.3705</v>
       </c>
-      <c r="R164" s="44">
-        <v>0.33500000000000002</v>
+      <c r="R164" s="42">
+        <v>0.37</v>
       </c>
       <c r="S164" s="21">
         <v>0.33</v>
@@ -21627,7 +21628,7 @@
       </c>
       <c r="U164" s="31">
         <f>R164*0.99</f>
-        <v>0.33165</v>
+        <v>0.36630000000000001</v>
       </c>
       <c r="V164" s="31">
         <f t="shared" ref="V164:V169" si="171">S164*0.99</f>
@@ -21639,7 +21640,7 @@
       </c>
       <c r="X164" s="31">
         <f t="shared" ref="X164:X169" si="173">U164*0.99</f>
-        <v>0.3283335</v>
+        <v>0.36263699999999999</v>
       </c>
       <c r="Y164" s="31">
         <f t="shared" ref="Y164:Y169" si="174">V164*0.99</f>
@@ -21651,7 +21652,7 @@
       </c>
       <c r="AA164" s="31">
         <f t="shared" ref="AA164:AA169" si="176">X164*0.99</f>
-        <v>0.325050165</v>
+        <v>0.35901063</v>
       </c>
       <c r="AB164" s="31">
         <f t="shared" ref="AB164:AB169" si="177">Y164*0.99</f>
@@ -21662,7 +21663,7 @@
         <v>0.37841660999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A165" s="33" t="s">
         <v>30</v>
       </c>
@@ -21698,7 +21699,7 @@
       </c>
       <c r="L165" s="21">
         <f t="shared" si="142"/>
-        <v>0.31587499999999996</v>
+        <v>0.34294999999999998</v>
       </c>
       <c r="M165" s="21">
         <f t="shared" si="143"/>
@@ -21710,7 +21711,7 @@
       </c>
       <c r="O165" s="21">
         <f t="shared" si="161"/>
-        <v>0.33249999999999996</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="P165" s="21">
         <f t="shared" si="145"/>
@@ -21720,8 +21721,8 @@
         <f t="shared" si="148"/>
         <v>0.38</v>
       </c>
-      <c r="R165" s="44">
-        <v>0.35</v>
+      <c r="R165" s="42">
+        <v>0.38</v>
       </c>
       <c r="S165" s="21">
         <v>0.36</v>
@@ -21731,7 +21732,7 @@
       </c>
       <c r="U165" s="31">
         <f t="shared" ref="U165:U169" si="179">R165*0.99</f>
-        <v>0.34649999999999997</v>
+        <v>0.37619999999999998</v>
       </c>
       <c r="V165" s="31">
         <f t="shared" si="171"/>
@@ -21743,7 +21744,7 @@
       </c>
       <c r="X165" s="31">
         <f t="shared" si="173"/>
-        <v>0.34303499999999998</v>
+        <v>0.37243799999999999</v>
       </c>
       <c r="Y165" s="31">
         <f t="shared" si="174"/>
@@ -21755,7 +21756,7 @@
       </c>
       <c r="AA165" s="31">
         <f t="shared" si="176"/>
-        <v>0.33960464999999995</v>
+        <v>0.36871361999999996</v>
       </c>
       <c r="AB165" s="31">
         <f t="shared" si="177"/>
@@ -21766,7 +21767,7 @@
         <v>0.38811960000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A166" s="33" t="s">
         <v>30</v>
       </c>
@@ -21802,7 +21803,7 @@
       </c>
       <c r="L166" s="21">
         <f t="shared" si="142"/>
-        <v>0.33392499999999997</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="M166" s="21">
         <f t="shared" si="143"/>
@@ -21814,7 +21815,7 @@
       </c>
       <c r="O166" s="21">
         <f t="shared" si="161"/>
-        <v>0.35149999999999998</v>
+        <v>0.38</v>
       </c>
       <c r="P166" s="21">
         <f t="shared" si="145"/>
@@ -21824,8 +21825,8 @@
         <f t="shared" si="148"/>
         <v>0.39899999999999997</v>
       </c>
-      <c r="R166" s="44">
-        <v>0.37</v>
+      <c r="R166" s="42">
+        <v>0.4</v>
       </c>
       <c r="S166" s="21">
         <v>0.4</v>
@@ -21835,7 +21836,7 @@
       </c>
       <c r="U166" s="31">
         <f t="shared" si="179"/>
-        <v>0.36630000000000001</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="V166" s="31">
         <f t="shared" si="171"/>
@@ -21847,7 +21848,7 @@
       </c>
       <c r="X166" s="31">
         <f t="shared" si="173"/>
-        <v>0.36263699999999999</v>
+        <v>0.39204</v>
       </c>
       <c r="Y166" s="31">
         <f t="shared" si="174"/>
@@ -21859,7 +21860,7 @@
       </c>
       <c r="AA166" s="31">
         <f t="shared" si="176"/>
-        <v>0.35901063</v>
+        <v>0.38811960000000001</v>
       </c>
       <c r="AB166" s="31">
         <f t="shared" si="177"/>
@@ -21870,7 +21871,7 @@
         <v>0.40752558</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A167" s="33" t="s">
         <v>30</v>
       </c>
@@ -21906,7 +21907,7 @@
       </c>
       <c r="L167" s="21">
         <f t="shared" si="142"/>
-        <v>0.39258749999999998</v>
+        <v>0.42417499999999991</v>
       </c>
       <c r="M167" s="21">
         <f t="shared" si="143"/>
@@ -21918,7 +21919,7 @@
       </c>
       <c r="O167" s="21">
         <f t="shared" si="161"/>
-        <v>0.41325000000000001</v>
+        <v>0.44649999999999995</v>
       </c>
       <c r="P167" s="21">
         <f t="shared" si="145"/>
@@ -21928,8 +21929,8 @@
         <f t="shared" si="148"/>
         <v>0.39899999999999997</v>
       </c>
-      <c r="R167" s="44">
-        <v>0.435</v>
+      <c r="R167" s="42">
+        <v>0.47</v>
       </c>
       <c r="S167" s="21">
         <v>0.4</v>
@@ -21939,7 +21940,7 @@
       </c>
       <c r="U167" s="31">
         <f t="shared" si="179"/>
-        <v>0.43064999999999998</v>
+        <v>0.46529999999999999</v>
       </c>
       <c r="V167" s="31">
         <f t="shared" si="171"/>
@@ -21951,7 +21952,7 @@
       </c>
       <c r="X167" s="31">
         <f t="shared" si="173"/>
-        <v>0.42634349999999999</v>
+        <v>0.46064699999999997</v>
       </c>
       <c r="Y167" s="31">
         <f t="shared" si="174"/>
@@ -21963,7 +21964,7 @@
       </c>
       <c r="AA167" s="31">
         <f t="shared" si="176"/>
-        <v>0.422080065</v>
+        <v>0.45604052999999994</v>
       </c>
       <c r="AB167" s="31">
         <f t="shared" si="177"/>
@@ -21974,7 +21975,7 @@
         <v>0.40752558</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A168" s="33" t="s">
         <v>30</v>
       </c>
@@ -22010,7 +22011,7 @@
       </c>
       <c r="L168" s="21">
         <f t="shared" si="142"/>
-        <v>0.33392499999999997</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="M168" s="21">
         <f t="shared" si="143"/>
@@ -22022,7 +22023,7 @@
       </c>
       <c r="O168" s="21">
         <f t="shared" si="161"/>
-        <v>0.35149999999999998</v>
+        <v>0.38</v>
       </c>
       <c r="P168" s="21">
         <f t="shared" si="145"/>
@@ -22032,8 +22033,8 @@
         <f t="shared" si="148"/>
         <v>0.40849999999999997</v>
       </c>
-      <c r="R168" s="44">
-        <v>0.37</v>
+      <c r="R168" s="42">
+        <v>0.4</v>
       </c>
       <c r="S168" s="21">
         <v>0.41</v>
@@ -22043,7 +22044,7 @@
       </c>
       <c r="U168" s="31">
         <f t="shared" si="179"/>
-        <v>0.36630000000000001</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="V168" s="31">
         <f t="shared" si="171"/>
@@ -22055,7 +22056,7 @@
       </c>
       <c r="X168" s="31">
         <f t="shared" si="173"/>
-        <v>0.36263699999999999</v>
+        <v>0.39204</v>
       </c>
       <c r="Y168" s="31">
         <f t="shared" si="174"/>
@@ -22067,7 +22068,7 @@
       </c>
       <c r="AA168" s="31">
         <f t="shared" si="176"/>
-        <v>0.35901063</v>
+        <v>0.38811960000000001</v>
       </c>
       <c r="AB168" s="31">
         <f t="shared" si="177"/>
@@ -22078,7 +22079,7 @@
         <v>0.41722856999999997</v>
       </c>
     </row>
-    <row r="169" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A169" s="33" t="s">
         <v>30</v>
       </c>
@@ -22114,7 +22115,7 @@
       </c>
       <c r="L169" s="21">
         <f t="shared" si="142"/>
-        <v>0.36099999999999999</v>
+        <v>0.38807499999999995</v>
       </c>
       <c r="M169" s="21">
         <f t="shared" si="143"/>
@@ -22126,7 +22127,7 @@
       </c>
       <c r="O169" s="21">
         <f t="shared" si="161"/>
-        <v>0.38</v>
+        <v>0.40849999999999997</v>
       </c>
       <c r="P169" s="21">
         <f t="shared" si="145"/>
@@ -22136,8 +22137,8 @@
         <f t="shared" ref="Q169" si="180">1.02*T169</f>
         <v>0.43859999999999999</v>
       </c>
-      <c r="R169" s="44">
-        <v>0.4</v>
+      <c r="R169" s="42">
+        <v>0.43</v>
       </c>
       <c r="S169" s="21">
         <v>0.42</v>
@@ -22147,7 +22148,7 @@
       </c>
       <c r="U169" s="31">
         <f t="shared" si="179"/>
-        <v>0.39600000000000002</v>
+        <v>0.42569999999999997</v>
       </c>
       <c r="V169" s="31">
         <f t="shared" si="171"/>
@@ -22159,7 +22160,7 @@
       </c>
       <c r="X169" s="31">
         <f t="shared" si="173"/>
-        <v>0.39204</v>
+        <v>0.42144299999999996</v>
       </c>
       <c r="Y169" s="31">
         <f t="shared" si="174"/>
@@ -22171,7 +22172,7 @@
       </c>
       <c r="AA169" s="31">
         <f t="shared" si="176"/>
-        <v>0.38811960000000001</v>
+        <v>0.41722856999999997</v>
       </c>
       <c r="AB169" s="31">
         <f t="shared" si="177"/>
@@ -22182,7 +22183,7 @@
         <v>0.41722856999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="33" t="s">
         <v>30</v>
       </c>
@@ -22283,7 +22284,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A171" s="33" t="s">
         <v>30</v>
       </c>
@@ -22319,7 +22320,7 @@
       </c>
       <c r="L171" s="21">
         <f t="shared" si="142"/>
-        <v>0.31406999999999996</v>
+        <v>0.34294999999999998</v>
       </c>
       <c r="M171" s="21">
         <f t="shared" si="143"/>
@@ -22331,7 +22332,7 @@
       </c>
       <c r="O171" s="21">
         <f t="shared" si="161"/>
-        <v>0.33059999999999995</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="P171" s="21">
         <f t="shared" si="145"/>
@@ -22342,7 +22343,7 @@
         <v>0.3705</v>
       </c>
       <c r="R171" s="21">
-        <v>0.34799999999999998</v>
+        <v>0.38</v>
       </c>
       <c r="S171" s="21">
         <v>0.33</v>
@@ -22352,7 +22353,7 @@
       </c>
       <c r="U171" s="31">
         <f>R171*0.99</f>
-        <v>0.34451999999999999</v>
+        <v>0.37619999999999998</v>
       </c>
       <c r="V171" s="31">
         <f t="shared" ref="V171:V176" si="188">S171*0.99</f>
@@ -22364,7 +22365,7 @@
       </c>
       <c r="X171" s="31">
         <f t="shared" ref="X171:X176" si="190">U171*0.99</f>
-        <v>0.34107480000000001</v>
+        <v>0.37243799999999999</v>
       </c>
       <c r="Y171" s="31">
         <f t="shared" ref="Y171:Y176" si="191">V171*0.99</f>
@@ -22376,7 +22377,7 @@
       </c>
       <c r="AA171" s="31">
         <f t="shared" ref="AA171:AA176" si="193">X171*0.99</f>
-        <v>0.33766405199999999</v>
+        <v>0.36871361999999996</v>
       </c>
       <c r="AB171" s="31">
         <f t="shared" ref="AB171:AB176" si="194">Y171*0.99</f>
@@ -22387,7 +22388,7 @@
         <v>0.37841660999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A172" s="33" t="s">
         <v>30</v>
       </c>
@@ -22423,7 +22424,7 @@
       </c>
       <c r="L172" s="21">
         <f t="shared" ref="L172:L176" si="196">O172*0.95</f>
-        <v>0.33843749999999995</v>
+        <v>0.37002499999999994</v>
       </c>
       <c r="M172" s="21">
         <f t="shared" ref="M172:M176" si="197">P172*0.95</f>
@@ -22435,7 +22436,7 @@
       </c>
       <c r="O172" s="21">
         <f t="shared" si="161"/>
-        <v>0.35624999999999996</v>
+        <v>0.38949999999999996</v>
       </c>
       <c r="P172" s="21">
         <f t="shared" ref="P172:P176" si="199">S172*0.95</f>
@@ -22446,7 +22447,7 @@
         <v>0.38</v>
       </c>
       <c r="R172" s="21">
-        <v>0.375</v>
+        <v>0.41</v>
       </c>
       <c r="S172" s="21">
         <v>0.36</v>
@@ -22456,7 +22457,7 @@
       </c>
       <c r="U172" s="31">
         <f t="shared" ref="U172:U176" si="200">R172*0.99</f>
-        <v>0.37124999999999997</v>
+        <v>0.40589999999999998</v>
       </c>
       <c r="V172" s="31">
         <f t="shared" si="188"/>
@@ -22468,7 +22469,7 @@
       </c>
       <c r="X172" s="31">
         <f t="shared" si="190"/>
-        <v>0.36753749999999996</v>
+        <v>0.401841</v>
       </c>
       <c r="Y172" s="31">
         <f t="shared" si="191"/>
@@ -22480,7 +22481,7 @@
       </c>
       <c r="AA172" s="31">
         <f t="shared" si="193"/>
-        <v>0.36386212499999998</v>
+        <v>0.39782258999999998</v>
       </c>
       <c r="AB172" s="31">
         <f t="shared" si="194"/>
@@ -22491,7 +22492,7 @@
         <v>0.38811960000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A173" s="33" t="s">
         <v>30</v>
       </c>
@@ -22527,7 +22528,7 @@
       </c>
       <c r="L173" s="21">
         <f t="shared" si="196"/>
-        <v>0.37453749999999997</v>
+        <v>0.40612499999999996</v>
       </c>
       <c r="M173" s="21">
         <f t="shared" si="197"/>
@@ -22539,7 +22540,7 @@
       </c>
       <c r="O173" s="21">
         <f t="shared" si="161"/>
-        <v>0.39424999999999999</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="P173" s="21">
         <f t="shared" si="199"/>
@@ -22550,7 +22551,7 @@
         <v>0.39899999999999997</v>
       </c>
       <c r="R173" s="21">
-        <v>0.41499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="S173" s="21">
         <v>0.4</v>
@@ -22560,7 +22561,7 @@
       </c>
       <c r="U173" s="31">
         <f t="shared" si="200"/>
-        <v>0.41084999999999999</v>
+        <v>0.44550000000000001</v>
       </c>
       <c r="V173" s="31">
         <f t="shared" si="188"/>
@@ -22572,7 +22573,7 @@
       </c>
       <c r="X173" s="31">
         <f t="shared" si="190"/>
-        <v>0.40674149999999998</v>
+        <v>0.44104500000000002</v>
       </c>
       <c r="Y173" s="31">
         <f t="shared" si="191"/>
@@ -22584,7 +22585,7 @@
       </c>
       <c r="AA173" s="31">
         <f t="shared" si="193"/>
-        <v>0.40267408499999996</v>
+        <v>0.43663455000000001</v>
       </c>
       <c r="AB173" s="31">
         <f t="shared" si="194"/>
@@ -22595,7 +22596,7 @@
         <v>0.40752558</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A174" s="33" t="s">
         <v>30</v>
       </c>
@@ -22631,7 +22632,7 @@
       </c>
       <c r="L174" s="21">
         <f t="shared" si="196"/>
-        <v>0.47832499999999994</v>
+        <v>0.50539999999999996</v>
       </c>
       <c r="M174" s="21">
         <f t="shared" si="197"/>
@@ -22643,7 +22644,7 @@
       </c>
       <c r="O174" s="21">
         <f t="shared" si="161"/>
-        <v>0.50349999999999995</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="P174" s="21">
         <f t="shared" si="199"/>
@@ -22654,7 +22655,7 @@
         <v>0.39899999999999997</v>
       </c>
       <c r="R174" s="21">
-        <v>0.53</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S174" s="21">
         <v>0.4</v>
@@ -22664,7 +22665,7 @@
       </c>
       <c r="U174" s="31">
         <f t="shared" si="200"/>
-        <v>0.52470000000000006</v>
+        <v>0.5544</v>
       </c>
       <c r="V174" s="31">
         <f t="shared" si="188"/>
@@ -22676,7 +22677,7 @@
       </c>
       <c r="X174" s="31">
         <f t="shared" si="190"/>
-        <v>0.51945300000000005</v>
+        <v>0.54885600000000001</v>
       </c>
       <c r="Y174" s="31">
         <f t="shared" si="191"/>
@@ -22688,7 +22689,7 @@
       </c>
       <c r="AA174" s="31">
         <f t="shared" si="193"/>
-        <v>0.51425847000000002</v>
+        <v>0.54336744000000003</v>
       </c>
       <c r="AB174" s="31">
         <f t="shared" si="194"/>
@@ -22699,7 +22700,7 @@
         <v>0.40752558</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A175" s="33" t="s">
         <v>30</v>
       </c>
@@ -22735,7 +22736,7 @@
       </c>
       <c r="L175" s="21">
         <f t="shared" si="196"/>
-        <v>0.38626999999999995</v>
+        <v>0.41514999999999996</v>
       </c>
       <c r="M175" s="21">
         <f t="shared" si="197"/>
@@ -22747,7 +22748,7 @@
       </c>
       <c r="O175" s="21">
         <f t="shared" si="161"/>
-        <v>0.40659999999999996</v>
+        <v>0.437</v>
       </c>
       <c r="P175" s="21">
         <f t="shared" si="199"/>
@@ -22758,7 +22759,7 @@
         <v>0.40849999999999997</v>
       </c>
       <c r="R175" s="21">
-        <v>0.42799999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="S175" s="21">
         <v>0.41</v>
@@ -22768,7 +22769,7 @@
       </c>
       <c r="U175" s="31">
         <f t="shared" si="200"/>
-        <v>0.42371999999999999</v>
+        <v>0.45540000000000003</v>
       </c>
       <c r="V175" s="31">
         <f t="shared" si="188"/>
@@ -22780,7 +22781,7 @@
       </c>
       <c r="X175" s="31">
         <f t="shared" si="190"/>
-        <v>0.41948279999999999</v>
+        <v>0.45084600000000002</v>
       </c>
       <c r="Y175" s="31">
         <f t="shared" si="191"/>
@@ -22792,7 +22793,7 @@
       </c>
       <c r="AA175" s="31">
         <f t="shared" si="193"/>
-        <v>0.41528797200000001</v>
+        <v>0.44633754000000003</v>
       </c>
       <c r="AB175" s="31">
         <f t="shared" si="194"/>
@@ -22803,7 +22804,7 @@
         <v>0.41722856999999997</v>
       </c>
     </row>
-    <row r="176" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A176" s="33" t="s">
         <v>30</v>
       </c>
@@ -22839,7 +22840,7 @@
       </c>
       <c r="L176" s="21">
         <f t="shared" si="196"/>
-        <v>0.40883249999999999</v>
+        <v>0.43319999999999992</v>
       </c>
       <c r="M176" s="21">
         <f t="shared" si="197"/>
@@ -22851,7 +22852,7 @@
       </c>
       <c r="O176" s="21">
         <f t="shared" si="161"/>
-        <v>0.43035000000000001</v>
+        <v>0.45599999999999996</v>
       </c>
       <c r="P176" s="21">
         <f t="shared" si="199"/>
@@ -22862,7 +22863,7 @@
         <v>0.43859999999999999</v>
       </c>
       <c r="R176" s="21">
-        <v>0.45300000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="S176" s="21">
         <v>0.42</v>
@@ -22872,7 +22873,7 @@
       </c>
       <c r="U176" s="31">
         <f t="shared" si="200"/>
-        <v>0.44847000000000004</v>
+        <v>0.47519999999999996</v>
       </c>
       <c r="V176" s="31">
         <f t="shared" si="188"/>
@@ -22884,7 +22885,7 @@
       </c>
       <c r="X176" s="31">
         <f t="shared" si="190"/>
-        <v>0.44398530000000003</v>
+        <v>0.47044799999999998</v>
       </c>
       <c r="Y176" s="31">
         <f t="shared" si="191"/>
@@ -22896,7 +22897,7 @@
       </c>
       <c r="AA176" s="31">
         <f t="shared" si="193"/>
-        <v>0.43954544700000003</v>
+        <v>0.46574351999999997</v>
       </c>
       <c r="AB176" s="31">
         <f t="shared" si="194"/>
@@ -22907,7 +22908,7 @@
         <v>0.41722856999999997</v>
       </c>
     </row>
-    <row r="177" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="33" t="s">
         <v>30</v>
       </c>
@@ -23002,7 +23003,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="178" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="33" t="s">
         <v>30</v>
       </c>
@@ -23091,7 +23092,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:29" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="33" t="s">
         <v>30</v>
       </c>
@@ -23181,7 +23182,7 @@
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:29" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="33" t="s">
         <v>30</v>
       </c>
@@ -23271,7 +23272,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="181" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="33" t="s">
         <v>30</v>
       </c>
@@ -23352,7 +23353,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:29" ht="14.55" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="33" t="s">
         <v>30</v>
       </c>
@@ -23447,7 +23448,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="183" spans="1:29" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:29" ht="31.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="33" t="s">
         <v>30</v>
       </c>
@@ -23540,7 +23541,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="184" spans="1:29" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:29" ht="29.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="33" t="s">
         <v>30</v>
       </c>
@@ -23635,7 +23636,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="185" spans="1:29" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="33" t="s">
         <v>30</v>
       </c>
@@ -23736,7 +23737,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="186" spans="1:29" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:29" ht="36.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="33" t="s">
         <v>30</v>
       </c>
@@ -23833,7 +23834,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="187" spans="1:29" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:29" ht="26.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="33" t="s">
         <v>30</v>
       </c>
@@ -23922,7 +23923,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="188" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="33" t="s">
         <v>30</v>
       </c>
@@ -23999,7 +24000,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="189" spans="1:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:29" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="33" t="s">
         <v>30</v>
       </c>
@@ -24094,7 +24095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="33" t="s">
         <v>30</v>
       </c>
@@ -24171,7 +24172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="33" t="s">
         <v>30</v>
       </c>
@@ -24275,7 +24276,7 @@
         <v>3.0008124999999994</v>
       </c>
     </row>
-    <row r="192" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="33" t="s">
         <v>30</v>
       </c>
@@ -24379,7 +24380,7 @@
         <v>3.0008124999999994</v>
       </c>
     </row>
-    <row r="193" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="33" t="s">
         <v>30</v>
       </c>
@@ -24444,7 +24445,7 @@
       <c r="AB193" s="13"/>
       <c r="AC193" s="13"/>
     </row>
-    <row r="194" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="33" t="s">
         <v>30</v>
       </c>
@@ -24509,7 +24510,7 @@
       <c r="AB194" s="13"/>
       <c r="AC194" s="13"/>
     </row>
-    <row r="195" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="33" t="s">
         <v>30</v>
       </c>
@@ -24598,7 +24599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="33" t="s">
         <v>30</v>
       </c>
@@ -24699,7 +24700,7 @@
         <v>161.25</v>
       </c>
     </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="33" t="s">
         <v>30</v>
       </c>
@@ -24788,7 +24789,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="33" t="s">
         <v>30</v>
       </c>
@@ -24853,7 +24854,7 @@
       <c r="AB198" s="13"/>
       <c r="AC198" s="13"/>
     </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="33" t="s">
         <v>30</v>
       </c>
@@ -24918,7 +24919,7 @@
       <c r="AB199" s="16"/>
       <c r="AC199" s="16"/>
     </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="33" t="s">
         <v>30</v>
       </c>
@@ -24983,7 +24984,7 @@
       <c r="AB200" s="13"/>
       <c r="AC200" s="13"/>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="33" t="s">
         <v>30</v>
       </c>
@@ -25072,7 +25073,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="202" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="14" t="s">
         <v>31</v>
       </c>
@@ -25174,7 +25175,7 @@
         <v>943.11249999999995</v>
       </c>
     </row>
-    <row r="203" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="33" t="s">
         <v>31</v>
       </c>
@@ -25276,7 +25277,7 @@
         <v>1886.2249999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="33" t="s">
         <v>31</v>
       </c>
@@ -25378,7 +25379,7 @@
         <v>3600.9749999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="33" t="s">
         <v>31</v>
       </c>
@@ -25480,7 +25481,7 @@
         <v>4286.875</v>
       </c>
     </row>
-    <row r="206" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="33" t="s">
         <v>31</v>
       </c>
@@ -25582,7 +25583,7 @@
         <v>10288.5</v>
       </c>
     </row>
-    <row r="207" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="33" t="s">
         <v>31</v>
       </c>
@@ -25684,7 +25685,7 @@
         <v>10288.5</v>
       </c>
     </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="33" t="s">
         <v>31</v>
       </c>
@@ -25789,7 +25790,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="33" t="s">
         <v>31</v>
       </c>
@@ -25894,7 +25895,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="33" t="s">
         <v>31</v>
       </c>
@@ -25999,7 +26000,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="33" t="s">
         <v>31</v>
       </c>
@@ -26104,7 +26105,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="33" t="s">
         <v>31</v>
       </c>
@@ -26205,7 +26206,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="213" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="33" t="s">
         <v>31</v>
       </c>
@@ -26306,7 +26307,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="33" t="s">
         <v>31</v>
       </c>
@@ -26411,7 +26412,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="33" t="s">
         <v>31</v>
       </c>
@@ -26516,7 +26517,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="33" t="s">
         <v>31</v>
       </c>
@@ -26621,7 +26622,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="33" t="s">
         <v>31</v>
       </c>
@@ -26726,7 +26727,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="33" t="s">
         <v>31</v>
       </c>
@@ -26827,7 +26828,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="219" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="33" t="s">
         <v>31</v>
       </c>
@@ -26928,7 +26929,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="33" t="s">
         <v>31</v>
       </c>
@@ -26993,7 +26994,7 @@
       <c r="AB220" s="13"/>
       <c r="AC220" s="13"/>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="33" t="s">
         <v>31</v>
       </c>
@@ -27066,7 +27067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="33" t="s">
         <v>31</v>
       </c>
@@ -27155,7 +27156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:29" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="33" t="s">
         <v>32</v>
       </c>
@@ -27250,7 +27251,7 @@
         <v>0.92700000000000005</v>
       </c>
     </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="33" t="s">
         <v>32</v>
       </c>
@@ -27323,7 +27324,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="33" t="s">
         <v>32</v>
       </c>
@@ -27418,7 +27419,7 @@
         <v>0.94760000000000011</v>
       </c>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="33" t="s">
         <v>32</v>
       </c>
@@ -27507,7 +27508,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="33" t="s">
         <v>32</v>
       </c>
@@ -27594,7 +27595,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="33" t="s">
         <v>32</v>
       </c>
@@ -27689,7 +27690,7 @@
         <v>3.4499999999999997</v>
       </c>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="33" t="s">
         <v>32</v>
       </c>
@@ -27778,7 +27779,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="33" t="s">
         <v>32</v>
       </c>
@@ -27867,7 +27868,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="33" t="s">
         <v>32</v>
       </c>
@@ -27956,7 +27957,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="232" spans="1:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:29" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="33" t="s">
         <v>32</v>
       </c>
@@ -28045,7 +28046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:29" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="33" t="s">
         <v>32</v>
       </c>
@@ -28134,7 +28135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:29" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="33" t="s">
         <v>32</v>
       </c>
@@ -28223,7 +28224,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="235" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="33" t="s">
         <v>32</v>
       </c>
@@ -28312,7 +28313,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="236" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="33" t="s">
         <v>32</v>
       </c>
@@ -28401,7 +28402,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="33" t="s">
         <v>32</v>
       </c>
@@ -28460,7 +28461,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="238" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="33" t="s">
         <v>32</v>
       </c>
@@ -28549,7 +28550,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="239" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="33" t="s">
         <v>32</v>
       </c>
@@ -28638,7 +28639,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="240" spans="1:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:29" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="33" t="s">
         <v>32</v>
       </c>
@@ -28723,7 +28724,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="33" t="s">
         <v>32</v>
       </c>
@@ -28808,7 +28809,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="33" t="s">
         <v>32</v>
       </c>
@@ -28897,7 +28898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="33" t="s">
         <v>32</v>
       </c>
@@ -28958,7 +28959,7 @@
       <c r="AB243" s="16"/>
       <c r="AC243" s="16"/>
     </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="33" t="s">
         <v>32</v>
       </c>
@@ -29019,7 +29020,7 @@
       <c r="AB244" s="16"/>
       <c r="AC244" s="16"/>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="33" t="s">
         <v>32</v>
       </c>
@@ -29080,7 +29081,7 @@
       <c r="AB245" s="16"/>
       <c r="AC245" s="16"/>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="14" t="s">
         <v>39</v>
       </c>
@@ -29171,7 +29172,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="33" t="s">
         <v>39</v>
       </c>
@@ -29256,7 +29257,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="33" t="s">
         <v>39</v>
       </c>
@@ -29341,7 +29342,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="33" t="s">
         <v>39</v>
       </c>
@@ -29428,7 +29429,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="14" t="s">
         <v>63</v>
       </c>
@@ -29503,7 +29504,7 @@
       <c r="AB250" s="13"/>
       <c r="AC250" s="13"/>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="33" t="s">
         <v>63</v>
       </c>
@@ -29578,7 +29579,7 @@
       <c r="AB251" s="13"/>
       <c r="AC251" s="13"/>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="33" t="s">
         <v>63</v>
       </c>
@@ -29653,7 +29654,7 @@
       <c r="AB252" s="13"/>
       <c r="AC252" s="13"/>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="33" t="s">
         <v>63</v>
       </c>
@@ -29728,7 +29729,7 @@
       <c r="AB253" s="13"/>
       <c r="AC253" s="13"/>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="33" t="s">
         <v>63</v>
       </c>
@@ -29803,7 +29804,7 @@
       <c r="AB254" s="13"/>
       <c r="AC254" s="13"/>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="33" t="s">
         <v>63</v>
       </c>
@@ -29878,7 +29879,7 @@
       <c r="AB255" s="13"/>
       <c r="AC255" s="13"/>
     </row>
-    <row r="256" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="33" t="s">
         <v>63</v>
       </c>
@@ -29953,7 +29954,7 @@
       <c r="AB256" s="13"/>
       <c r="AC256" s="13"/>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="33" t="s">
         <v>63</v>
       </c>
@@ -30028,7 +30029,7 @@
       <c r="AB257" s="13"/>
       <c r="AC257" s="13"/>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="33" t="s">
         <v>63</v>
       </c>
@@ -30103,7 +30104,7 @@
       <c r="AB258" s="13"/>
       <c r="AC258" s="13"/>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="33" t="s">
         <v>63</v>
       </c>
@@ -30178,7 +30179,7 @@
       <c r="AB259" s="13"/>
       <c r="AC259" s="13"/>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="33" t="s">
         <v>63</v>
       </c>
@@ -30253,7 +30254,7 @@
       <c r="AB260" s="13"/>
       <c r="AC260" s="13"/>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="33" t="s">
         <v>63</v>
       </c>
@@ -30328,7 +30329,7 @@
       <c r="AB261" s="13"/>
       <c r="AC261" s="13"/>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="33" t="s">
         <v>63</v>
       </c>
@@ -30403,7 +30404,7 @@
       <c r="AB262" s="13"/>
       <c r="AC262" s="13"/>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="33" t="s">
         <v>63</v>
       </c>
@@ -30478,7 +30479,7 @@
       <c r="AB263" s="13"/>
       <c r="AC263" s="13"/>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="33" t="s">
         <v>63</v>
       </c>
@@ -30553,7 +30554,7 @@
       <c r="AB264" s="13"/>
       <c r="AC264" s="13"/>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="33" t="s">
         <v>63</v>
       </c>
@@ -30628,7 +30629,7 @@
       <c r="AB265" s="13"/>
       <c r="AC265" s="13"/>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="33" t="s">
         <v>63</v>
       </c>
@@ -30679,7 +30680,7 @@
       <c r="AB266" s="13"/>
       <c r="AC266" s="13"/>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="33" t="s">
         <v>63</v>
       </c>
@@ -30754,7 +30755,7 @@
       <c r="AB267" s="13"/>
       <c r="AC267" s="13"/>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="33" t="s">
         <v>63</v>
       </c>
@@ -30829,7 +30830,7 @@
       <c r="AB268" s="13"/>
       <c r="AC268" s="13"/>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="33" t="s">
         <v>63</v>
       </c>
@@ -30904,7 +30905,7 @@
       <c r="AB269" s="13"/>
       <c r="AC269" s="13"/>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="33" t="s">
         <v>63</v>
       </c>
@@ -30979,7 +30980,7 @@
       <c r="AB270" s="13"/>
       <c r="AC270" s="13"/>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="33" t="s">
         <v>63</v>
       </c>
@@ -31054,7 +31055,7 @@
       <c r="AB271" s="13"/>
       <c r="AC271" s="13"/>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="33" t="s">
         <v>63</v>
       </c>
@@ -31129,7 +31130,7 @@
       <c r="AB272" s="13"/>
       <c r="AC272" s="13"/>
     </row>
-    <row r="273" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:29" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="33" t="s">
         <v>63</v>
       </c>
@@ -31204,7 +31205,7 @@
       <c r="AB273" s="13"/>
       <c r="AC273" s="13"/>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="33" t="s">
         <v>63</v>
       </c>
@@ -31279,7 +31280,7 @@
       <c r="AB274" s="13"/>
       <c r="AC274" s="13"/>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="33" t="s">
         <v>63</v>
       </c>
@@ -31354,7 +31355,7 @@
       <c r="AB275" s="13"/>
       <c r="AC275" s="13"/>
     </row>
-    <row r="276" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="33" t="s">
         <v>63</v>
       </c>
@@ -31429,7 +31430,7 @@
       <c r="AB276" s="13"/>
       <c r="AC276" s="13"/>
     </row>
-    <row r="277" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="33" t="s">
         <v>63</v>
       </c>
@@ -31504,7 +31505,7 @@
       <c r="AB277" s="13"/>
       <c r="AC277" s="13"/>
     </row>
-    <row r="278" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="33" t="s">
         <v>63</v>
       </c>
@@ -31579,7 +31580,7 @@
       <c r="AB278" s="13"/>
       <c r="AC278" s="13"/>
     </row>
-    <row r="279" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="33" t="s">
         <v>63</v>
       </c>
@@ -31654,7 +31655,7 @@
       <c r="AB279" s="13"/>
       <c r="AC279" s="13"/>
     </row>
-    <row r="280" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="33" t="s">
         <v>63</v>
       </c>
@@ -31730,6 +31731,23 @@
       <c r="AC280" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:AC280">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="ICEV-d, ICEV-g,   PHEV-c-d, HEV-d"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="engine efficiency, empty, long haul"/>
+        <filter val="engine efficiency, empty, regional delivery"/>
+        <filter val="engine efficiency, empty, urban delivery"/>
+        <filter val="engine efficiency, full, long haul"/>
+        <filter val="engine efficiency, full, regional delivery"/>
+        <filter val="engine efficiency, full, urban delivery"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I227" r:id="rId1"/>
@@ -31819,18 +31837,18 @@
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>125</v>
       </c>
@@ -31840,22 +31858,22 @@
       <c r="C1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2"/>
       <c r="C2" s="5"/>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -31875,7 +31893,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -31897,7 +31915,7 @@
         <v>0.23724924924924926</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -31919,7 +31937,7 @@
         <v>0.23707507507507511</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -31941,7 +31959,7 @@
         <v>0.23724924924924926</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -31963,7 +31981,7 @@
         <v>0.245957957957958</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -31985,7 +32003,7 @@
         <v>0.23115315315315316</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -32007,7 +32025,7 @@
         <v>0.21791591591591591</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -32029,7 +32047,7 @@
         <v>0.20729129129129131</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -32051,7 +32069,7 @@
         <v>0.23254654654654658</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -32073,7 +32091,7 @@
         <v>0.22557957957957958</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -32095,7 +32113,7 @@
         <v>0.29072072072072075</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -32117,7 +32135,7 @@
         <v>0.25013813813813812</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -32139,7 +32157,7 @@
         <v>0.27591591591591597</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -32161,7 +32179,7 @@
         <v>0.22819219219219219</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -32183,7 +32201,7 @@
         <v>0.24299699699699701</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -32205,7 +32223,7 @@
         <v>0.24439039039039043</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -32227,7 +32245,7 @@
         <v>0.32207207207207211</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -32249,7 +32267,7 @@
         <v>0.25867267267267269</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -32271,7 +32289,7 @@
         <v>0.22122522522522522</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -32293,7 +32311,7 @@
         <v>0.22122522522522522</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -32315,7 +32333,7 @@
         <v>0.21582582582582585</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -32337,7 +32355,7 @@
         <v>0.3356576576576577</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -32359,7 +32377,7 @@
         <v>0.20572372372372372</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -32381,7 +32399,7 @@
         <v>0.20816216216216218</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -32403,7 +32421,7 @@
         <v>0.23690090090090091</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -32425,7 +32443,7 @@
         <v>0.24543543543543545</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -32447,7 +32465,7 @@
         <v>0.21181981981981984</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -32469,7 +32487,7 @@
         <v>0.20781381381381381</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -32491,7 +32509,7 @@
         <v>0.23428828828828829</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -32513,7 +32531,7 @@
         <v>0.20380780780780783</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -32535,7 +32553,7 @@
         <v>0.21199399399399399</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>110</v>
       </c>
@@ -32557,7 +32575,7 @@
         <v>0.26250450450450452</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>111</v>
       </c>
@@ -32579,7 +32597,7 @@
         <v>0.23376576576576577</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -32601,7 +32619,7 @@
         <v>0.30134534534534535</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -32623,7 +32641,7 @@
         <v>0.20537537537537537</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -32645,7 +32663,7 @@
         <v>0.2344624624624625</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -32667,7 +32685,7 @@
         <v>0.19771171171171173</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -32679,7 +32697,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -32701,7 +32719,7 @@
         <v>0.20224024024024026</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -32723,7 +32741,7 @@
         <v>0.20711711711711714</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>118</v>
       </c>
@@ -32745,7 +32763,7 @@
         <v>0.20119519519519521</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -32767,7 +32785,7 @@
         <v>0.22732132132132132</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -32789,7 +32807,7 @@
         <v>0.24421621621621623</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>120</v>
       </c>
@@ -32805,7 +32823,7 @@
         <v>0.19771171171171173</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>147</v>
       </c>
@@ -32814,7 +32832,7 @@
         <v>0.3356576576576577</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
         <v>153</v>
       </c>
@@ -32844,55 +32862,55 @@
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9.21875" customWidth="1"/>
-    <col min="8" max="13" width="9.21875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="13" width="9.28515625" style="4" customWidth="1"/>
     <col min="14" max="14" width="22" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="20.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" style="4"/>
-    <col min="18" max="18" width="21.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.21875" style="4"/>
-    <col min="21" max="21" width="21.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="4"/>
+    <col min="18" max="18" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="4"/>
+    <col min="21" max="21" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>132</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-    </row>
-    <row r="2" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+    </row>
+    <row r="2" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
       <c r="O2" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>130</v>
       </c>
@@ -32912,7 +32930,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>129</v>
       </c>
@@ -32972,7 +32990,7 @@
       </c>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -33051,7 +33069,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="4"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -33130,7 +33148,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="4"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -33209,7 +33227,7 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -33288,7 +33306,7 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -33359,7 +33377,7 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -33438,7 +33456,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -33517,7 +33535,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -33596,7 +33614,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -33675,7 +33693,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -33754,7 +33772,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -33833,7 +33851,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -33902,7 +33920,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="4"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -33981,7 +33999,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -34052,7 +34070,7 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="4"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -34131,7 +34149,7 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -34202,7 +34220,7 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="4"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -34273,7 +34291,7 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="4"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -34352,7 +34370,7 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -34423,7 +34441,7 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -34502,7 +34520,7 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -34581,7 +34599,7 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -34660,7 +34678,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -34739,7 +34757,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>107</v>
       </c>
@@ -34818,7 +34836,7 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -34897,7 +34915,7 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -34976,7 +34994,7 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>109</v>
       </c>
@@ -35055,7 +35073,7 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -35134,7 +35152,7 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>135</v>
       </c>
@@ -35189,7 +35207,7 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H35" s="4" t="s">
         <v>146</v>
       </c>
@@ -35221,7 +35239,7 @@
         <v>7.4983783783783772E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H36" s="4" t="s">
         <v>147</v>
       </c>
@@ -35253,7 +35271,7 @@
         <v>5.7315085945945948E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H37" s="4" t="s">
         <v>148</v>
       </c>
@@ -35287,7 +35305,7 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
